--- a/Paper_results/MoleCLIP_full_results.xlsx
+++ b/Paper_results/MoleCLIP_full_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\Desktop\Work Results\PhD\Manuscripts\Image based molecular representation learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D46C2E-E390-41AD-B03C-E4D650065CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C935A14-D411-4A7D-8D73-6E815D5B4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="210">
   <si>
     <t>ImageMol</t>
   </si>
@@ -531,16 +531,7 @@
     <t>1*10-3</t>
   </si>
   <si>
-    <t>0.0197±0.0005</t>
-  </si>
-  <si>
-    <t>0.0205±0.0011</t>
-  </si>
-  <si>
     <t>1*10-3, 1*10-3</t>
-  </si>
-  <si>
-    <t>0.0224±0.0007</t>
   </si>
   <si>
     <t>Final runs (300 epochs)</t>
@@ -977,6 +968,18 @@
   </si>
   <si>
     <t>Hyperparameter optimization (100 epochs)</t>
+  </si>
+  <si>
+    <t>0.0138±0.0010</t>
+  </si>
+  <si>
+    <t>0.0218±0.0026</t>
+  </si>
+  <si>
+    <t>0.0145±0.0007</t>
+  </si>
+  <si>
+    <t>4*10-3, 4*10-3</t>
   </si>
 </sst>
 </file>
@@ -2183,11 +2186,11 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2197,12 +2200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2220,6 +2217,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2254,18 +2257,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2303,6 +2294,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2317,21 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,6 +2349,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2647,38 +2650,38 @@
       <c r="F1" s="39"/>
     </row>
     <row r="2" spans="2:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="209" t="s">
+      <c r="D2" s="219"/>
+      <c r="E2" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="209"/>
+      <c r="F2" s="220"/>
     </row>
     <row r="3" spans="2:17" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="219" t="s">
+      <c r="E3" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="219" t="s">
-        <v>185</v>
+      <c r="F3" s="217" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="216"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
@@ -2784,13 +2787,13 @@
     </row>
     <row r="11" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>66</v>
@@ -2801,29 +2804,29 @@
     </row>
     <row r="12" spans="2:17" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -2917,7 +2920,7 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="208" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="86"/>
@@ -2965,7 +2968,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="213"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="86"/>
       <c r="D20" s="34">
         <v>0.80333854981742303</v>
@@ -3011,7 +3014,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="214"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="87"/>
       <c r="D21" s="37">
         <v>0.79255781603199404</v>
@@ -3272,7 +3275,7 @@
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="208" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="34">
@@ -3322,7 +3325,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="213"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="34">
         <v>0.72989004629629595</v>
       </c>
@@ -3370,7 +3373,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="214"/>
+      <c r="B30" s="209"/>
       <c r="C30" s="34">
         <v>0.71865354938271597</v>
       </c>
@@ -3633,7 +3636,7 @@
       <c r="S36" s="14"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="208" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="30">
@@ -3683,7 +3686,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="213"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="30">
         <v>1.97353947162628</v>
       </c>
@@ -3731,7 +3734,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="214"/>
+      <c r="B39" s="209"/>
       <c r="C39" s="27">
         <v>2.3044509887695299</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="208" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="66">
@@ -4045,7 +4048,7 @@
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="213"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="66">
         <v>1.1055727005004801</v>
       </c>
@@ -4093,7 +4096,7 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="214"/>
+      <c r="B48" s="209"/>
       <c r="C48" s="66">
         <v>1.0286796092987001</v>
       </c>
@@ -4272,19 +4275,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="M26:Q26"/>
@@ -4295,6 +4285,19 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4305,7 +4308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33D9E33-785C-47D7-9DC1-CE0549D33BCD}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4324,8 +4329,8 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="59" t="s">
         <v>107</v>
       </c>
@@ -4410,7 +4415,7 @@
     </row>
     <row r="12" spans="2:6" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,7 +4423,7 @@
     </row>
     <row r="14" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4434,7 +4439,7 @@
       <c r="D16" s="107"/>
       <c r="E16" s="195"/>
       <c r="F16" s="104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,7 +4686,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4724,7 +4729,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="110" t="s">
         <v>61</v>
       </c>
@@ -4741,7 +4746,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="213"/>
+      <c r="A35" s="208"/>
       <c r="B35" s="110" t="s">
         <v>61</v>
       </c>
@@ -4758,7 +4763,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
+      <c r="A36" s="208"/>
       <c r="B36" s="124" t="s">
         <v>62</v>
       </c>
@@ -4775,7 +4780,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="110" t="s">
         <v>62</v>
       </c>
@@ -4792,7 +4797,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
+      <c r="A38" s="208"/>
       <c r="B38" s="112" t="s">
         <v>62</v>
       </c>
@@ -4809,7 +4814,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="213"/>
+      <c r="A39" s="208"/>
       <c r="B39" s="110" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4835,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="213"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="110" t="s">
         <v>63</v>
       </c>
@@ -4851,7 +4856,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="112" t="s">
         <v>63</v>
       </c>
@@ -4946,7 +4951,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5462,7 +5467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A142E2-66DF-4D27-83CE-EA5EDDEEEEBB}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5480,8 +5487,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="59" t="s">
         <v>123</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="158" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5532,7 +5539,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="158" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="24.6" thickTop="1" x14ac:dyDescent="0.25">
@@ -5543,7 +5550,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5561,12 +5568,12 @@
         <v>111</v>
       </c>
       <c r="D11" s="158" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5574,7 +5581,7 @@
     </row>
     <row r="14" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -5664,49 +5671,49 @@
         <v>64</v>
       </c>
       <c r="C18" s="141">
-        <v>1.8115904182195601E-2</v>
-      </c>
-      <c r="D18" s="92">
-        <v>1.7678089439868899E-2</v>
-      </c>
-      <c r="E18" s="92">
-        <v>1.47366654127836E-2</v>
-      </c>
-      <c r="F18" s="92">
-        <v>1.6614714637398699E-2</v>
+        <v>7.2067249566316596E-3</v>
+      </c>
+      <c r="D18">
+        <v>9.8152393475174904E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.1089625768363399E-2</v>
+      </c>
+      <c r="F18">
+        <v>7.8103593550622403E-3</v>
       </c>
       <c r="G18" s="142">
-        <v>1.8893200904130901E-2</v>
+        <v>9.3115866184234602E-3</v>
       </c>
       <c r="H18" s="141">
-        <v>1.5221344307065E-2</v>
-      </c>
-      <c r="I18" s="92">
-        <v>1.39428479596972E-2</v>
-      </c>
-      <c r="J18" s="92">
-        <v>1.71952247619628E-2</v>
-      </c>
-      <c r="K18" s="92">
-        <v>1.6689250245690301E-2</v>
+        <v>8.3628082647919603E-3</v>
+      </c>
+      <c r="I18">
+        <v>9.6274632960557903E-3</v>
+      </c>
+      <c r="J18">
+        <v>9.1994255781173706E-3</v>
+      </c>
+      <c r="K18">
+        <v>9.8885968327522208E-3</v>
       </c>
       <c r="L18" s="142">
-        <v>2.1056899800896599E-2</v>
+        <v>1.03906029835343E-2</v>
       </c>
       <c r="M18" s="141">
-        <v>1.6062924638390499E-2</v>
-      </c>
-      <c r="N18" s="92">
-        <v>1.54656004160642E-2</v>
-      </c>
-      <c r="O18" s="92">
-        <v>1.8963342532515502E-2</v>
-      </c>
-      <c r="P18" s="92">
-        <v>1.61714125424623E-2</v>
+        <v>8.9361937716603192E-3</v>
+      </c>
+      <c r="N18">
+        <v>8.0096377059817297E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.09805362299084E-2</v>
+      </c>
+      <c r="P18">
+        <v>8.2078929990529997E-3</v>
       </c>
       <c r="Q18" s="142">
-        <v>1.8603112548589699E-2</v>
+        <v>9.8642827942967398E-3</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5715,49 +5722,49 @@
         <v>64</v>
       </c>
       <c r="C19" s="91">
-        <v>2.15990003198385E-2</v>
-      </c>
-      <c r="D19" s="92">
-        <v>1.8828984349966001E-2</v>
-      </c>
-      <c r="E19" s="92">
-        <v>1.8651820719241999E-2</v>
-      </c>
-      <c r="F19" s="92">
-        <v>2.0184848457574799E-2</v>
+        <v>7.2378353215753997E-3</v>
+      </c>
+      <c r="D19">
+        <v>9.8685566335916502E-3</v>
+      </c>
+      <c r="E19">
+        <v>9.4733834266662598E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.0801159776747201E-2</v>
       </c>
       <c r="G19" s="143">
-        <v>2.1099161356687501E-2</v>
+        <v>1.00914537906646E-2</v>
       </c>
       <c r="H19" s="91">
-        <v>1.4984356239438E-2</v>
-      </c>
-      <c r="I19" s="92">
-        <v>1.6639240086078599E-2</v>
-      </c>
-      <c r="J19" s="92">
-        <v>1.5445283614099E-2</v>
-      </c>
-      <c r="K19" s="92">
-        <v>1.8514569848775801E-2</v>
+        <v>7.6649892143905102E-3</v>
+      </c>
+      <c r="I19">
+        <v>7.8873103484511306E-3</v>
+      </c>
+      <c r="J19">
+        <v>1.1534758843481501E-2</v>
+      </c>
+      <c r="K19">
+        <v>8.4192994982004096E-3</v>
       </c>
       <c r="L19" s="143">
-        <v>2.3627737537026398E-2</v>
+        <v>8.9219901710748603E-3</v>
       </c>
       <c r="M19" s="91">
-        <v>1.5877611935138699E-2</v>
-      </c>
-      <c r="N19" s="92">
-        <v>1.50582194328308E-2</v>
-      </c>
-      <c r="O19" s="92">
-        <v>1.52668189257383E-2</v>
-      </c>
-      <c r="P19" s="92">
-        <v>1.6580721363425199E-2</v>
+        <v>7.4473395943641602E-3</v>
+      </c>
+      <c r="N19">
+        <v>7.1272687055170501E-3</v>
+      </c>
+      <c r="O19">
+        <v>9.1543355956673605E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.14991562440991E-2</v>
       </c>
       <c r="Q19" s="143">
-        <v>1.7909903079271299E-2</v>
+        <v>7.6027577742934201E-3</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5766,49 +5773,49 @@
         <v>64</v>
       </c>
       <c r="C20" s="91">
-        <v>1.5689322724938299E-2</v>
-      </c>
-      <c r="D20" s="92">
-        <v>1.6958747059106799E-2</v>
-      </c>
-      <c r="E20" s="92">
-        <v>1.50202251970767E-2</v>
-      </c>
-      <c r="F20" s="92">
-        <v>1.8478700891137099E-2</v>
+        <v>7.6261884532868801E-3</v>
+      </c>
+      <c r="D20">
+        <v>8.6501538753509504E-3</v>
+      </c>
+      <c r="E20">
+        <v>8.0200778320431692E-3</v>
+      </c>
+      <c r="F20">
+        <v>7.7853584662079802E-3</v>
       </c>
       <c r="G20" s="143">
-        <v>1.8949965015053701E-2</v>
+        <v>8.2953618839383108E-3</v>
       </c>
       <c r="H20" s="91">
-        <v>1.7463147640228199E-2</v>
-      </c>
-      <c r="I20" s="92">
-        <v>1.9445681944489399E-2</v>
-      </c>
-      <c r="J20" s="92">
-        <v>1.60318706184625E-2</v>
-      </c>
-      <c r="K20" s="92">
-        <v>1.7232898622751201E-2</v>
+        <v>9.2924134805798496E-3</v>
+      </c>
+      <c r="I20">
+        <v>6.88501354306936E-3</v>
+      </c>
+      <c r="J20">
+        <v>9.0537285432219505E-3</v>
+      </c>
+      <c r="K20">
+        <v>9.7165005281567504E-3</v>
       </c>
       <c r="L20" s="143">
-        <v>1.64900515228509E-2</v>
+        <v>9.0127345174550993E-3</v>
       </c>
       <c r="M20" s="91">
-        <v>1.5705371275544101E-2</v>
-      </c>
-      <c r="N20" s="92">
-        <v>1.35600576177239E-2</v>
-      </c>
-      <c r="O20" s="92">
-        <v>1.6277233138680399E-2</v>
-      </c>
-      <c r="P20" s="92">
-        <v>1.54901193454861E-2</v>
+        <v>9.6282996237277898E-3</v>
+      </c>
+      <c r="N20">
+        <v>6.8171196617186E-3</v>
+      </c>
+      <c r="O20">
+        <v>8.2369642332196201E-3</v>
+      </c>
+      <c r="P20">
+        <v>9.4913532957434602E-3</v>
       </c>
       <c r="Q20" s="143">
-        <v>1.67671106755733E-2</v>
+        <v>8.7504694238305092E-3</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -5817,49 +5824,49 @@
         <v>65</v>
       </c>
       <c r="C21" s="91">
-        <v>1.8516754731535901E-2</v>
-      </c>
-      <c r="D21" s="92">
-        <v>1.8057789653539599E-2</v>
-      </c>
-      <c r="E21" s="92">
-        <v>2.0329181104898401E-2</v>
-      </c>
-      <c r="F21" s="92">
-        <v>2.06745434552431E-2</v>
+        <v>1.32198827341198E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.41493780538439E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.6757180914282799E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.5624252147972501E-2</v>
       </c>
       <c r="G21" s="143">
-        <v>1.9724896177649401E-2</v>
+        <v>1.35724442079663E-2</v>
       </c>
       <c r="H21" s="91">
-        <v>2.01294235885143E-2</v>
-      </c>
-      <c r="I21" s="92">
-        <v>1.6465375199913899E-2</v>
-      </c>
-      <c r="J21" s="92">
-        <v>1.9977208226919101E-2</v>
-      </c>
-      <c r="K21" s="92">
-        <v>2.0377123728394501E-2</v>
+        <v>1.2157080695033001E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.20277907699346E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.4983720146119499E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.5992129221558501E-2</v>
       </c>
       <c r="L21" s="143">
-        <v>2.3544542491436001E-2</v>
+        <v>1.7833152785897199E-2</v>
       </c>
       <c r="M21" s="91">
-        <v>1.56524311751127E-2</v>
-      </c>
-      <c r="N21" s="92">
-        <v>2.1487584337592101E-2</v>
-      </c>
-      <c r="O21" s="92">
-        <v>2.47462261468172E-2</v>
-      </c>
-      <c r="P21" s="92">
-        <v>2.18189321458339E-2</v>
+        <v>9.9275540560483898E-3</v>
+      </c>
+      <c r="N21">
+        <v>1.3182190246880001E-2</v>
+      </c>
+      <c r="O21">
+        <v>9.7721787169575604E-3</v>
+      </c>
+      <c r="P21">
+        <v>1.4459876343607901E-2</v>
       </c>
       <c r="Q21" s="143">
-        <v>2.2548224776983199E-2</v>
+        <v>1.6288066282868299E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -5868,49 +5875,49 @@
         <v>65</v>
       </c>
       <c r="C22" s="91">
-        <v>2.0974647253751699E-2</v>
-      </c>
-      <c r="D22" s="92">
-        <v>2.00805198401212E-2</v>
-      </c>
-      <c r="E22" s="92">
-        <v>1.8347240984439801E-2</v>
-      </c>
-      <c r="F22" s="92">
-        <v>2.0611723884940099E-2</v>
+        <v>1.6131240874528802E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.0072383806109401E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.58899407833814E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.6392698511481198E-2</v>
       </c>
       <c r="G22" s="143">
-        <v>2.4344021454453399E-2</v>
+        <v>1.2397987768054E-2</v>
       </c>
       <c r="H22" s="91">
-        <v>1.8911996856331801E-2</v>
-      </c>
-      <c r="I22" s="92">
-        <v>1.73833463340997E-2</v>
-      </c>
-      <c r="J22" s="92">
-        <v>2.13935356587171E-2</v>
-      </c>
-      <c r="K22" s="92">
-        <v>2.2639581933617502E-2</v>
+        <v>1.08253555372357E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.35675817728042E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.5557670034468099E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.46872168406844E-2</v>
       </c>
       <c r="L22" s="143">
-        <v>2.4920828640460899E-2</v>
+        <v>1.72657202929258E-2</v>
       </c>
       <c r="M22" s="91">
-        <v>1.82042066007852E-2</v>
-      </c>
-      <c r="N22" s="92">
-        <v>2.1704452112316999E-2</v>
-      </c>
-      <c r="O22" s="92">
-        <v>1.8648287281394001E-2</v>
-      </c>
-      <c r="P22" s="92">
-        <v>2.1482402458786898E-2</v>
+        <v>1.5435454435646499E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.20457494631409E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.183951087296E-2</v>
+      </c>
+      <c r="P22">
+        <v>1.53261991217732E-2</v>
       </c>
       <c r="Q22" s="143">
-        <v>2.2703481838107099E-2</v>
+        <v>1.3215859420597499E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -5919,49 +5926,49 @@
         <v>65</v>
       </c>
       <c r="C23" s="91">
-        <v>1.95040144026279E-2</v>
-      </c>
-      <c r="D23" s="92">
-        <v>2.13866829872131E-2</v>
-      </c>
-      <c r="E23" s="92">
-        <v>2.2879766300320601E-2</v>
-      </c>
-      <c r="F23" s="92">
-        <v>1.8871983513236001E-2</v>
+        <v>9.2479782178997993E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.8063047900795898E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.54153238981962E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.6035610809922201E-2</v>
       </c>
       <c r="G23" s="143">
-        <v>2.1132167428731901E-2</v>
+        <v>1.45019264891743E-2</v>
       </c>
       <c r="H23" s="91">
-        <v>1.8344033509492801E-2</v>
-      </c>
-      <c r="I23" s="92">
-        <v>1.9689356908202098E-2</v>
-      </c>
-      <c r="J23" s="92">
-        <v>1.85709148645401E-2</v>
-      </c>
-      <c r="K23" s="92">
-        <v>2.0573005080223E-2</v>
+        <v>1.0398941114544801E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.11155211925506E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.28748938441276E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.23436106368899E-2</v>
       </c>
       <c r="L23" s="143">
-        <v>2.2913778200745499E-2</v>
+        <v>1.7078669741749701E-2</v>
       </c>
       <c r="M23" s="91">
-        <v>1.6950098797678899E-2</v>
-      </c>
-      <c r="N23" s="92">
-        <v>2.13612560182809E-2</v>
-      </c>
-      <c r="O23" s="92">
-        <v>1.9981915131211201E-2</v>
-      </c>
-      <c r="P23" s="92">
-        <v>2.4906972423195801E-2</v>
+        <v>1.04477917775511E-2</v>
+      </c>
+      <c r="N23">
+        <v>1.1071268469095201E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.21452463790774E-2</v>
+      </c>
+      <c r="P23">
+        <v>1.20137352496385E-2</v>
       </c>
       <c r="Q23" s="143">
-        <v>2.4266334250569298E-2</v>
+        <v>1.41795082017779E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -5970,49 +5977,49 @@
         <v>61</v>
       </c>
       <c r="C24" s="91">
-        <v>2.7719153091311399E-2</v>
-      </c>
-      <c r="D24" s="92">
-        <v>2.7277298271656002E-2</v>
-      </c>
-      <c r="E24" s="92">
-        <v>2.1835312247276299E-2</v>
-      </c>
-      <c r="F24" s="92">
-        <v>2.4642582982778501E-2</v>
+        <v>3.1798034906387301E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.9373314231634098E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.5292756035923899E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.3204414173960599E-2</v>
       </c>
       <c r="G24" s="143">
-        <v>2.1773582324385601E-2</v>
+        <v>1.79413501173257E-2</v>
       </c>
       <c r="H24" s="91">
-        <v>2.14769840240478E-2</v>
-      </c>
-      <c r="I24" s="92">
-        <v>2.34081391245126E-2</v>
-      </c>
-      <c r="J24" s="92">
-        <v>2.83917319029569E-2</v>
-      </c>
-      <c r="K24" s="92">
-        <v>2.5358548387885E-2</v>
+        <v>2.2346295416355098E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.5999810546636502E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.9094785451889E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.6890994980931199E-2</v>
       </c>
       <c r="L24" s="143">
-        <v>2.83032860606908E-2</v>
+        <v>2.9299642890691702E-2</v>
       </c>
       <c r="M24" s="91">
-        <v>2.5357319042086601E-2</v>
-      </c>
-      <c r="N24" s="92">
-        <v>2.5241969153284999E-2</v>
-      </c>
-      <c r="O24" s="92">
-        <v>2.10277084261178E-2</v>
-      </c>
-      <c r="P24" s="92">
-        <v>2.12311837822198E-2</v>
+        <v>2.0636394619941701E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.16508563607931E-2</v>
+      </c>
+      <c r="O24">
+        <v>2.3291457444429401E-2</v>
+      </c>
+      <c r="P24">
+        <v>2.3752775043249099E-2</v>
       </c>
       <c r="Q24" s="143">
-        <v>2.4340752512216499E-2</v>
+        <v>2.15621553361415E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -6021,49 +6028,49 @@
         <v>61</v>
       </c>
       <c r="C25" s="91">
-        <v>2.6326848194003102E-2</v>
-      </c>
-      <c r="D25" s="92">
-        <v>2.5613585487008001E-2</v>
-      </c>
-      <c r="E25" s="92">
-        <v>2.8578320518136E-2</v>
-      </c>
-      <c r="F25" s="92">
-        <v>2.3402014747262001E-2</v>
+        <v>2.8177000582218101E-2</v>
+      </c>
+      <c r="D25">
+        <v>2.4680377915501501E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.5313610211014699E-2</v>
+      </c>
+      <c r="F25">
+        <v>2.3979544639587399E-2</v>
       </c>
       <c r="G25" s="143">
-        <v>2.01747622340917E-2</v>
+        <v>1.7283115535974499E-2</v>
       </c>
       <c r="H25" s="91">
-        <v>2.1404076367616601E-2</v>
-      </c>
-      <c r="I25" s="92">
-        <v>2.47037373483181E-2</v>
-      </c>
-      <c r="J25" s="92">
-        <v>2.8295407071709602E-2</v>
-      </c>
-      <c r="K25" s="92">
-        <v>2.9100054875016199E-2</v>
+        <v>2.3004744201898499E-2</v>
+      </c>
+      <c r="I25">
+        <v>2.2737840190529799E-2</v>
+      </c>
+      <c r="J25">
+        <v>2.85046491771936E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.8437754139304099E-2</v>
       </c>
       <c r="L25" s="143">
-        <v>2.9144234955310801E-2</v>
+        <v>2.62227170169353E-2</v>
       </c>
       <c r="M25" s="91">
-        <v>2.0550969988107601E-2</v>
-      </c>
-      <c r="N25" s="92">
-        <v>2.45612505823373E-2</v>
-      </c>
-      <c r="O25" s="92">
-        <v>3.05040478706359E-2</v>
-      </c>
-      <c r="P25" s="92">
-        <v>2.2349394857883401E-2</v>
+        <v>2.8378460556268598E-2</v>
+      </c>
+      <c r="N25">
+        <v>2.0069291815161702E-2</v>
+      </c>
+      <c r="O25">
+        <v>2.5724837556481299E-2</v>
+      </c>
+      <c r="P25">
+        <v>2.4684244766831401E-2</v>
       </c>
       <c r="Q25" s="143">
-        <v>2.17313077300786E-2</v>
+        <v>2.57622357457876E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -6072,49 +6079,49 @@
         <v>61</v>
       </c>
       <c r="C26" s="91">
-        <v>2.1788103505968999E-2</v>
-      </c>
-      <c r="D26" s="92">
-        <v>2.8551347553730001E-2</v>
-      </c>
-      <c r="E26" s="92">
-        <v>2.04718951135873E-2</v>
-      </c>
-      <c r="F26" s="92">
-        <v>2.0201247185468601E-2</v>
+        <v>2.7061497792601499E-2</v>
+      </c>
+      <c r="D26">
+        <v>2.96282637864351E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.44274791330099E-2</v>
+      </c>
+      <c r="F26">
+        <v>2.38431002944707E-2</v>
       </c>
       <c r="G26" s="143">
-        <v>1.9511550664901699E-2</v>
+        <v>1.9329473376274098E-2</v>
       </c>
       <c r="H26" s="91">
-        <v>2.09052804857492E-2</v>
-      </c>
-      <c r="I26" s="92">
-        <v>2.1697262302041002E-2</v>
-      </c>
-      <c r="J26" s="92">
-        <v>2.5737876072525898E-2</v>
-      </c>
-      <c r="K26" s="92">
-        <v>2.8917005285620599E-2</v>
+        <v>2.2801075130700999E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.5622334331274001E-2</v>
+      </c>
+      <c r="J26">
+        <v>2.5887779891490902E-2</v>
+      </c>
+      <c r="K26">
+        <v>2.7720550075173302E-2</v>
       </c>
       <c r="L26" s="143">
-        <v>2.7359867468476198E-2</v>
+        <v>2.5200502946972798E-2</v>
       </c>
       <c r="M26" s="91">
-        <v>2.7481399476528098E-2</v>
-      </c>
-      <c r="N26" s="92">
-        <v>2.18518376350402E-2</v>
-      </c>
-      <c r="O26" s="92">
-        <v>2.2786566987633702E-2</v>
-      </c>
-      <c r="P26" s="92">
-        <v>2.31404155492782E-2</v>
+        <v>2.8759950771927799E-2</v>
+      </c>
+      <c r="N26">
+        <v>2.2451672703027701E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.5661725550889899E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.2124448791146199E-2</v>
       </c>
       <c r="Q26" s="143">
-        <v>2.2104913368821099E-2</v>
+        <v>2.37585473805665E-2</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -6123,49 +6130,49 @@
         <v>62</v>
       </c>
       <c r="C27" s="91">
-        <v>2.01127789914608E-2</v>
-      </c>
-      <c r="D27" s="92">
-        <v>2.0939206704497299E-2</v>
-      </c>
-      <c r="E27" s="92">
-        <v>2.1255826577544198E-2</v>
-      </c>
-      <c r="F27" s="92">
-        <v>1.8151829019188801E-2</v>
+        <v>1.0719228535890499E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.2194881290197303E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.0880466550588601E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.3851587660610599E-2</v>
       </c>
       <c r="G27" s="143">
-        <v>1.6911175101995399E-2</v>
+        <v>1.13486628979444E-2</v>
       </c>
       <c r="H27" s="91">
-        <v>1.7895800992846399E-2</v>
-      </c>
-      <c r="I27" s="92">
-        <v>1.76238603889942E-2</v>
-      </c>
-      <c r="J27" s="92">
-        <v>1.8552996218204498E-2</v>
-      </c>
-      <c r="K27" s="92">
-        <v>2.0648058503866099E-2</v>
+        <v>1.18771996349096E-2</v>
+      </c>
+      <c r="I27">
+        <v>1.1487472802400501E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.2122831307351501E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.21307475492358E-2</v>
       </c>
       <c r="L27" s="143">
-        <v>1.8436379730701401E-2</v>
+        <v>1.20960045605897E-2</v>
       </c>
       <c r="M27" s="91">
-        <v>1.9149608910083701E-2</v>
-      </c>
-      <c r="N27" s="92">
-        <v>2.15678587555885E-2</v>
-      </c>
-      <c r="O27" s="92">
-        <v>2.1082311868667599E-2</v>
-      </c>
-      <c r="P27" s="92">
-        <v>1.8408881500363301E-2</v>
+        <v>1.1417379602789801E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.40023464336991E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.12622175365686E-2</v>
+      </c>
+      <c r="P27">
+        <v>1.1686448939144599E-2</v>
       </c>
       <c r="Q27" s="143">
-        <v>1.7637077718973101E-2</v>
+        <v>1.24744875356555E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -6174,49 +6181,49 @@
         <v>62</v>
       </c>
       <c r="C28" s="91">
-        <v>1.69716551899909E-2</v>
-      </c>
-      <c r="D28" s="92">
-        <v>1.9032536074519098E-2</v>
-      </c>
-      <c r="E28" s="92">
-        <v>1.8339939415454799E-2</v>
-      </c>
-      <c r="F28" s="92">
-        <v>1.9159534946084002E-2</v>
+        <v>9.0994918718934007E-3</v>
+      </c>
+      <c r="D28">
+        <v>1.2712096795439699E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.1016670614480899E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.1127769947052E-2</v>
       </c>
       <c r="G28" s="143">
-        <v>1.85027718544006E-2</v>
+        <v>1.1482751928269801E-2</v>
       </c>
       <c r="H28" s="91">
-        <v>1.72056797891855E-2</v>
-      </c>
-      <c r="I28" s="92">
-        <v>1.71319153159856E-2</v>
-      </c>
-      <c r="J28" s="92">
-        <v>1.90498493611812E-2</v>
-      </c>
-      <c r="K28" s="92">
-        <v>2.3350454866886101E-2</v>
+        <v>8.9822690933942795E-3</v>
+      </c>
+      <c r="I28">
+        <v>9.4643449410796096E-3</v>
+      </c>
+      <c r="J28">
+        <v>1.11515056341886E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.17966281250119E-2</v>
       </c>
       <c r="L28" s="143">
-        <v>1.72532796859741E-2</v>
+        <v>1.5488160774111699E-2</v>
       </c>
       <c r="M28" s="91">
-        <v>1.7168410122394499E-2</v>
-      </c>
-      <c r="N28" s="92">
-        <v>2.21369322389364E-2</v>
-      </c>
-      <c r="O28" s="92">
-        <v>1.99747644364833E-2</v>
-      </c>
-      <c r="P28" s="92">
-        <v>2.4736953899264301E-2</v>
+        <v>8.4995348006486893E-3</v>
+      </c>
+      <c r="N28">
+        <v>1.1469837278127599E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.2137847952544601E-2</v>
+      </c>
+      <c r="P28">
+        <v>1.3465413823723699E-2</v>
       </c>
       <c r="Q28" s="143">
-        <v>1.82470642030239E-2</v>
+        <v>1.1673311702907E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -6225,49 +6232,49 @@
         <v>62</v>
       </c>
       <c r="C29" s="91">
-        <v>2.0153896883130001E-2</v>
-      </c>
-      <c r="D29" s="92">
-        <v>1.9949818029999698E-2</v>
-      </c>
-      <c r="E29" s="92">
-        <v>1.8541730940341901E-2</v>
-      </c>
-      <c r="F29" s="92">
-        <v>1.8499949946999501E-2</v>
+        <v>9.5674432814121194E-3</v>
+      </c>
+      <c r="D29">
+        <v>1.0537805967032901E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.3329845853149801E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.2219374068081299E-2</v>
       </c>
       <c r="G29" s="143">
-        <v>1.81858614087104E-2</v>
+        <v>1.2359981425106499E-2</v>
       </c>
       <c r="H29" s="91">
-        <v>2.1484864875674199E-2</v>
-      </c>
-      <c r="I29" s="92">
-        <v>1.7666587606072402E-2</v>
-      </c>
-      <c r="J29" s="92">
-        <v>1.6633713617920799E-2</v>
-      </c>
-      <c r="K29" s="92">
-        <v>1.8522093072533601E-2</v>
+        <v>1.05378748849034E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.00323241204023E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.14813717082142E-2</v>
+      </c>
+      <c r="K29">
+        <v>1.09218405559659E-2</v>
       </c>
       <c r="L29" s="143">
-        <v>2.0900223404168999E-2</v>
+        <v>9.7748031839728303E-3</v>
       </c>
       <c r="M29" s="91">
-        <v>1.7256179824471401E-2</v>
-      </c>
-      <c r="N29" s="92">
-        <v>2.1356970071792599E-2</v>
-      </c>
-      <c r="O29" s="92">
-        <v>1.8368264660239199E-2</v>
-      </c>
-      <c r="P29" s="92">
-        <v>1.8815908581018399E-2</v>
+        <v>1.02659212425351E-2</v>
+      </c>
+      <c r="N29">
+        <v>1.0882017202675299E-2</v>
+      </c>
+      <c r="O29">
+        <v>1.7802856862545E-2</v>
+      </c>
+      <c r="P29">
+        <v>1.2888564728200399E-2</v>
       </c>
       <c r="Q29" s="143">
-        <v>1.6414191573858199E-2</v>
+        <v>1.4082216657698101E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -6276,49 +6283,49 @@
         <v>63</v>
       </c>
       <c r="C30" s="91">
-        <v>3.1773939728736801E-2</v>
-      </c>
-      <c r="D30" s="92">
-        <v>2.2908391430974E-2</v>
-      </c>
-      <c r="E30" s="92">
-        <v>2.6844263076782199E-2</v>
-      </c>
-      <c r="F30" s="92">
-        <v>2.58626397699117E-2</v>
+        <v>2.57230177521705E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.7875402942299801E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.4373085945844602E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.9141539707779801E-2</v>
       </c>
       <c r="G30" s="143">
-        <v>3.0330426990985801E-2</v>
+        <v>2.8317686170339501E-2</v>
       </c>
       <c r="H30" s="91">
-        <v>2.0346149802207902E-2</v>
-      </c>
-      <c r="I30" s="92">
-        <v>2.64463126659393E-2</v>
-      </c>
-      <c r="J30" s="92">
-        <v>3.2406117767095503E-2</v>
-      </c>
-      <c r="K30" s="92">
-        <v>3.3196926116943297E-2</v>
+        <v>2.9363138601183801E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.8267702087759899E-2</v>
+      </c>
+      <c r="J30">
+        <v>3.06161381304264E-2</v>
+      </c>
+      <c r="K30">
+        <v>3.4798551350831902E-2</v>
       </c>
       <c r="L30" s="143">
-        <v>3.2536439597606603E-2</v>
+        <v>3.0747035518288598E-2</v>
       </c>
       <c r="M30" s="91">
-        <v>2.25729346275329E-2</v>
-      </c>
-      <c r="N30" s="92">
-        <v>2.4733193218708E-2</v>
-      </c>
-      <c r="O30" s="92">
-        <v>3.0082715675234701E-2</v>
-      </c>
-      <c r="P30" s="92">
-        <v>2.7437673881649902E-2</v>
+        <v>2.3410286754369701E-2</v>
+      </c>
+      <c r="N30">
+        <v>2.9217759147286401E-2</v>
+      </c>
+      <c r="O30">
+        <v>3.0753986909985501E-2</v>
+      </c>
+      <c r="P30">
+        <v>2.7779527008533401E-2</v>
       </c>
       <c r="Q30" s="143">
-        <v>3.0390063300728801E-2</v>
+        <v>2.5226535275578499E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -6327,49 +6334,49 @@
         <v>63</v>
       </c>
       <c r="C31" s="91">
-        <v>2.0299999043345399E-2</v>
-      </c>
-      <c r="D31" s="92">
-        <v>3.05245723575353E-2</v>
-      </c>
-      <c r="E31" s="92">
-        <v>2.7010723948478699E-2</v>
-      </c>
-      <c r="F31" s="92">
-        <v>2.6485778391361198E-2</v>
+        <v>2.11571156978607E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.5001251846551798E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.7941107749938899E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.8591666370630198E-2</v>
       </c>
       <c r="G31" s="143">
-        <v>2.66031567007303E-2</v>
+        <v>2.6414573192596401E-2</v>
       </c>
       <c r="H31" s="91">
-        <v>1.9965838640928199E-2</v>
-      </c>
-      <c r="I31" s="92">
-        <v>2.6958072558045301E-2</v>
-      </c>
-      <c r="J31" s="92">
-        <v>2.90683507919311E-2</v>
-      </c>
-      <c r="K31" s="92">
-        <v>3.2488696277141502E-2</v>
+        <v>2.1103776991367298E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.7583247050642901E-2</v>
+      </c>
+      <c r="J31">
+        <v>3.4300249069929102E-2</v>
+      </c>
+      <c r="K31">
+        <v>3.3399958163499797E-2</v>
       </c>
       <c r="L31" s="143">
-        <v>3.1735185533761902E-2</v>
+        <v>3.0289938673376999E-2</v>
       </c>
       <c r="M31" s="91">
-        <v>2.0858466625213599E-2</v>
-      </c>
-      <c r="N31" s="92">
-        <v>2.6859274134039799E-2</v>
-      </c>
-      <c r="O31" s="92">
-        <v>2.55728028714656E-2</v>
-      </c>
-      <c r="P31" s="92">
-        <v>3.1485326588153797E-2</v>
+        <v>2.6025230064988102E-2</v>
+      </c>
+      <c r="N31">
+        <v>2.8498645871877601E-2</v>
+      </c>
+      <c r="O31">
+        <v>3.2957766205072403E-2</v>
+      </c>
+      <c r="P31">
+        <v>2.9756311327218999E-2</v>
       </c>
       <c r="Q31" s="143">
-        <v>2.85723209381103E-2</v>
+        <v>2.6557574048638299E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -6378,49 +6385,49 @@
         <v>63</v>
       </c>
       <c r="C32" s="77">
-        <v>3.3865921199321698E-2</v>
-      </c>
-      <c r="D32" s="92">
-        <v>2.7652079239487599E-2</v>
-      </c>
-      <c r="E32" s="92">
-        <v>3.0198514461517299E-2</v>
-      </c>
-      <c r="F32" s="92">
-        <v>2.7896272018551799E-2</v>
+        <v>2.898277528584E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.54992600530385E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.6533135920763002E-2</v>
+      </c>
+      <c r="F32">
+        <v>3.6393884569406502E-2</v>
       </c>
       <c r="G32" s="79">
-        <v>2.67670098692178E-2</v>
+        <v>2.8073735535144799E-2</v>
       </c>
       <c r="H32" s="77">
-        <v>1.8552375957369801E-2</v>
-      </c>
-      <c r="I32" s="92">
-        <v>2.3835701867938E-2</v>
-      </c>
-      <c r="J32" s="92">
-        <v>3.2592196017503697E-2</v>
-      </c>
-      <c r="K32" s="92">
-        <v>3.2219998538494103E-2</v>
+        <v>1.3289559632539701E-2</v>
+      </c>
+      <c r="I32">
+        <v>2.82456669956445E-2</v>
+      </c>
+      <c r="J32">
+        <v>3.1708803027868201E-2</v>
+      </c>
+      <c r="K32">
+        <v>3.1107505783438599E-2</v>
       </c>
       <c r="L32" s="79">
-        <v>3.3309612423181499E-2</v>
+        <v>3.4005332738160997E-2</v>
       </c>
       <c r="M32" s="77">
-        <v>2.2085906937718301E-2</v>
-      </c>
-      <c r="N32" s="92">
-        <v>2.6638168841600401E-2</v>
-      </c>
-      <c r="O32" s="92">
-        <v>2.5984868407249399E-2</v>
-      </c>
-      <c r="P32" s="92">
-        <v>2.6908112689852701E-2</v>
+        <v>1.54363708570599E-2</v>
+      </c>
+      <c r="N32">
+        <v>2.62138880789279E-2</v>
+      </c>
+      <c r="O32">
+        <v>3.3642876893281902E-2</v>
+      </c>
+      <c r="P32">
+        <v>2.8485814109444601E-2</v>
       </c>
       <c r="Q32" s="79">
-        <v>2.8293348848819701E-2</v>
+        <v>2.6556065306067401E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -6429,63 +6436,63 @@
       </c>
       <c r="C33" s="141">
         <f t="shared" ref="C33:G33" si="0">AVERAGE(C18:C32)</f>
-        <v>2.222746262947713E-2</v>
+        <v>1.6863697084287761E-2</v>
       </c>
       <c r="D33" s="144">
         <f t="shared" si="0"/>
-        <v>2.2362643231948177E-2</v>
+        <v>1.9009734752277494E-2</v>
       </c>
       <c r="E33" s="144">
         <f t="shared" si="0"/>
-        <v>2.1536095067858654E-2</v>
+        <v>1.9050246042509836E-2</v>
       </c>
       <c r="F33" s="144">
         <f t="shared" si="0"/>
-        <v>2.1315890923142389E-2</v>
+        <v>1.8453488033264829E-2</v>
       </c>
       <c r="G33" s="142">
         <f t="shared" si="0"/>
-        <v>2.1526913965741745E-2</v>
+        <v>1.6048139395813111E-2</v>
       </c>
       <c r="H33" s="141">
         <f t="shared" ref="H33:Q33" si="1">AVERAGE(H18:H32)</f>
-        <v>1.8952756871779712E-2</v>
+        <v>1.4800501459588566E-2</v>
       </c>
       <c r="I33" s="144">
         <f t="shared" si="1"/>
-        <v>2.0202495840688488E-2</v>
+        <v>1.6703428265949047E-2</v>
       </c>
       <c r="J33" s="144">
         <f t="shared" si="1"/>
-        <v>2.2622818437715318E-2</v>
+        <v>1.9204820692539169E-2</v>
       </c>
       <c r="K33" s="144">
         <f t="shared" si="1"/>
-        <v>2.3988551025589257E-2</v>
+        <v>1.9216792285442309E-2</v>
       </c>
       <c r="L33" s="142">
         <f t="shared" si="1"/>
-        <v>2.4768823136885904E-2</v>
+        <v>1.9575133919715836E-2</v>
       </c>
       <c r="M33" s="141">
         <f t="shared" si="1"/>
-        <v>1.9395589331785788E-2</v>
+        <v>1.5643477501968508E-2</v>
       </c>
       <c r="N33" s="144">
         <f t="shared" si="1"/>
-        <v>2.1572308304409142E-2</v>
+        <v>1.6180636609593992E-2</v>
       </c>
       <c r="O33" s="144">
         <f t="shared" si="1"/>
-        <v>2.1951191624005589E-2</v>
+        <v>1.8357622995972593E-2</v>
       </c>
       <c r="P33" s="144">
         <f t="shared" si="1"/>
-        <v>2.2064294107258263E-2</v>
+        <v>1.7708117452760509E-2</v>
       </c>
       <c r="Q33" s="142">
         <f t="shared" si="1"/>
-        <v>2.2035280490914935E-2</v>
+        <v>1.7170271525780316E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -6494,63 +6501,63 @@
       </c>
       <c r="C34" s="77">
         <f t="shared" ref="C34:G34" si="2">SQRT(AVERAGE(VAR(C27:C29),VAR(C24:C26),VAR(C21:C23),VAR(C18:C20),VAR(C30:C32)))</f>
-        <v>3.9153384109681137E-3</v>
+        <v>2.6181014457866483E-3</v>
       </c>
       <c r="D34" s="78">
         <f t="shared" si="2"/>
-        <v>2.0773068294820483E-3</v>
+        <v>2.9957006993615795E-3</v>
       </c>
       <c r="E34" s="78">
         <f t="shared" si="2"/>
-        <v>2.6455373931707957E-3</v>
+        <v>2.2337313541333269E-3</v>
       </c>
       <c r="F34" s="78">
         <f t="shared" si="2"/>
-        <v>1.4720241969205963E-3</v>
+        <v>2.1985112432777319E-3</v>
       </c>
       <c r="G34" s="79">
         <f t="shared" si="2"/>
-        <v>1.6543870865729348E-3</v>
+        <v>9.368187589374789E-4</v>
       </c>
       <c r="H34" s="77">
         <f t="shared" ref="H34:Q34" si="3">SQRT(AVERAGE(VAR(H27:H29),VAR(H24:H26),VAR(H21:H23),VAR(H18:H20),VAR(H30:H32)))</f>
-        <v>1.339511700283868E-3</v>
+        <v>3.696670458885068E-3</v>
       </c>
       <c r="I34" s="78">
         <f t="shared" si="3"/>
-        <v>1.760519849718092E-3</v>
+        <v>1.2558353019459121E-3</v>
       </c>
       <c r="J34" s="78">
         <f t="shared" si="3"/>
-        <v>1.4567637323785498E-3</v>
+        <v>1.4609524736223446E-3</v>
       </c>
       <c r="K34" s="78">
         <f t="shared" si="3"/>
-        <v>1.6130382772504837E-3</v>
+        <v>1.3057147103718329E-3</v>
       </c>
       <c r="L34" s="79">
         <f t="shared" si="3"/>
-        <v>1.9493796047346226E-3</v>
+        <v>1.8838956135028566E-3</v>
       </c>
       <c r="M34" s="77">
         <f t="shared" si="3"/>
-        <v>1.8055916058162492E-3</v>
+        <v>3.5801255060852492E-3</v>
       </c>
       <c r="N34" s="78">
         <f t="shared" si="3"/>
-        <v>1.0753960954779033E-3</v>
+        <v>1.2789114296737328E-3</v>
       </c>
       <c r="O34" s="78">
         <f t="shared" si="3"/>
-        <v>3.0794567223860125E-3</v>
+        <v>2.0211941039725285E-3</v>
       </c>
       <c r="P34" s="78">
         <f t="shared" si="3"/>
-        <v>2.1725796537217065E-3</v>
+        <v>1.3571092677783598E-3</v>
       </c>
       <c r="Q34" s="79">
         <f t="shared" si="3"/>
-        <v>1.0882534868704573E-3</v>
+        <v>1.4321755557560431E-3</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -6626,13 +6633,13 @@
       </c>
       <c r="C38" s="140"/>
       <c r="D38" s="92">
-        <v>1.8932383507490099E-2</v>
+        <v>1.1520485393702901E-2</v>
       </c>
       <c r="E38" s="92">
-        <v>2.15604472905397E-2</v>
+        <v>1.3861684128642001E-2</v>
       </c>
       <c r="F38" s="143">
-        <v>0.115207634866237</v>
+        <v>0.159756109118461</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -6653,13 +6660,13 @@
       </c>
       <c r="C39" s="140"/>
       <c r="D39" s="92">
-        <v>2.6113420724868702E-2</v>
+        <v>1.4239585958421201E-2</v>
       </c>
       <c r="E39" s="92">
-        <v>2.4128722026944101E-2</v>
+        <v>1.25319343060255E-2</v>
       </c>
       <c r="F39" s="143">
-        <v>0.110998593270778</v>
+        <v>0.101436354219913</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -6680,13 +6687,13 @@
       </c>
       <c r="C40" s="140"/>
       <c r="D40" s="92">
-        <v>1.7109228298068001E-2</v>
+        <v>1.2931113131344299E-2</v>
       </c>
       <c r="E40" s="92">
-        <v>2.2437281906604701E-2</v>
+        <v>1.4283735305070801E-2</v>
       </c>
       <c r="F40" s="143">
-        <v>0.13297168910503299</v>
+        <v>0.13876302540302199</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -6707,13 +6714,13 @@
       </c>
       <c r="C41" s="140"/>
       <c r="D41" s="92">
-        <v>2.7780737727880402E-2</v>
+        <v>2.5661118328571299E-2</v>
       </c>
       <c r="E41" s="92">
-        <v>3.3904403448104803E-2</v>
+        <v>2.3851394653320299E-2</v>
       </c>
       <c r="F41" s="143">
-        <v>0.12873858213424599</v>
+        <v>0.117090441286563</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -6734,13 +6741,13 @@
       </c>
       <c r="C42" s="140"/>
       <c r="D42" s="92">
-        <v>2.8784718364477099E-2</v>
+        <v>2.73637976497411E-2</v>
       </c>
       <c r="E42" s="92">
-        <v>3.1699005514383302E-2</v>
+        <v>1.4946780167519999E-2</v>
       </c>
       <c r="F42" s="143">
-        <v>9.5636129379272405E-2</v>
+        <v>0.10255137830972599</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -6761,13 +6768,13 @@
       </c>
       <c r="C43" s="140"/>
       <c r="D43" s="92">
-        <v>3.12565974891185E-2</v>
+        <v>1.9903825595974901E-2</v>
       </c>
       <c r="E43" s="92">
-        <v>3.01594641059637E-2</v>
+        <v>2.3901006206869999E-2</v>
       </c>
       <c r="F43" s="143">
-        <v>0.12883253395557401</v>
+        <v>0.16555456817150099</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -6788,13 +6795,13 @@
       </c>
       <c r="C44" s="140"/>
       <c r="D44" s="92">
-        <v>5.2067946642637197E-2</v>
+        <v>4.2144481092691401E-2</v>
       </c>
       <c r="E44" s="92">
-        <v>2.98409797251224E-2</v>
+        <v>3.64811010658741E-2</v>
       </c>
       <c r="F44" s="143">
-        <v>0.101432114839553</v>
+        <v>0.12665940821170801</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -6815,13 +6822,13 @@
       </c>
       <c r="C45" s="140"/>
       <c r="D45" s="92">
-        <v>4.8836451023817E-2</v>
+        <v>4.0265884250402402E-2</v>
       </c>
       <c r="E45" s="92">
-        <v>3.6290865391492802E-2</v>
+        <v>2.66482420265674E-2</v>
       </c>
       <c r="F45" s="143">
-        <v>0.14253693819046001</v>
+        <v>0.165557965636253</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -6842,13 +6849,13 @@
       </c>
       <c r="C46" s="140"/>
       <c r="D46" s="92">
-        <v>5.20266406238079E-2</v>
+        <v>4.5810129493474898E-2</v>
       </c>
       <c r="E46" s="92">
-        <v>4.1921775788068702E-2</v>
+        <v>5.6990135461091898E-2</v>
       </c>
       <c r="F46" s="143">
-        <v>0.14175166189670499</v>
+        <v>0.138090670108795</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -6869,13 +6876,13 @@
       </c>
       <c r="C47" s="140"/>
       <c r="D47" s="92">
-        <v>2.72699519991874E-2</v>
+        <v>1.31054185330867E-2</v>
       </c>
       <c r="E47" s="92">
-        <v>2.1455880254506999E-2</v>
+        <v>1.4676213264465301E-2</v>
       </c>
       <c r="F47" s="143">
-        <v>0.15830187499523099</v>
+        <v>0.103813141584396</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -6896,13 +6903,13 @@
       </c>
       <c r="C48" s="140"/>
       <c r="D48" s="92">
-        <v>2.9833707958459799E-2</v>
+        <v>1.44577259197831E-2</v>
       </c>
       <c r="E48" s="92">
-        <v>2.29206718504428E-2</v>
+        <v>1.4004010707139899E-2</v>
       </c>
       <c r="F48" s="143">
-        <v>0.10497299581766099</v>
+        <v>0.13387425243854501</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -6923,13 +6930,13 @@
       </c>
       <c r="C49" s="140"/>
       <c r="D49" s="92">
-        <v>2.4104546755552202E-2</v>
+        <v>1.29031538963317E-2</v>
       </c>
       <c r="E49" s="92">
-        <v>2.9343174770474399E-2</v>
+        <v>1.5304406173527201E-2</v>
       </c>
       <c r="F49" s="143">
-        <v>0.13494132459163599</v>
+        <v>0.132599458098411</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -6950,13 +6957,13 @@
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="92">
-        <v>5.6400887668132699E-2</v>
+        <v>5.5006943643093102E-2</v>
       </c>
       <c r="E50" s="92">
-        <v>2.3657847195863699E-2</v>
+        <v>2.51666065305471E-2</v>
       </c>
       <c r="F50" s="143">
-        <v>0.16070933640003199</v>
+        <v>0.17616857588291099</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -6977,13 +6984,13 @@
       </c>
       <c r="C51" s="140"/>
       <c r="D51" s="92">
-        <v>5.5948939174413598E-2</v>
+        <v>5.46938702464103E-2</v>
       </c>
       <c r="E51" s="92">
-        <v>2.8777224943041801E-2</v>
+        <v>2.80077066272497E-2</v>
       </c>
       <c r="F51" s="143">
-        <v>0.16720473766326899</v>
+        <v>0.17341943085193601</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -7004,13 +7011,13 @@
       </c>
       <c r="C52" s="145"/>
       <c r="D52" s="78">
-        <v>5.4488047957420301E-2</v>
+        <v>5.6347422301769201E-2</v>
       </c>
       <c r="E52" s="92">
-        <v>2.93934047222137E-2</v>
+        <v>3.11427917331457E-2</v>
       </c>
       <c r="F52" s="79">
-        <v>0.15924037992954199</v>
+        <v>0.14490891993045801</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -7030,15 +7037,15 @@
       <c r="C53" s="23"/>
       <c r="D53" s="144">
         <f>AVERAGE(D38:D52)</f>
-        <v>3.67302803943554E-2</v>
+        <v>2.9756997028986567E-2</v>
       </c>
       <c r="E53" s="144">
         <f>AVERAGE(E38:E52)</f>
-        <v>2.8499409928917842E-2</v>
+        <v>2.3453183223803794E-2</v>
       </c>
       <c r="F53" s="142">
         <f>AVERAGE(F38:F52)</f>
-        <v>0.13223176846901527</v>
+        <v>0.1386829132835066</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -7058,15 +7065,15 @@
       <c r="C54" s="18"/>
       <c r="D54" s="78">
         <f>SQRT(AVERAGE(VAR(D47:D49),VAR(D44:D46),VAR(D41:D43),VAR(D38:D40),VAR(D50:D52)))</f>
-        <v>2.7760965131906883E-3</v>
+        <v>2.3051567667563711E-3</v>
       </c>
       <c r="E54" s="78">
         <f>SQRT(AVERAGE(VAR(E47:E49),VAR(E44:E46),VAR(E41:E43),VAR(E38:E40),VAR(E50:E52)))</f>
-        <v>3.7230188999005072E-3</v>
+        <v>7.4354488046002544E-3</v>
       </c>
       <c r="F54" s="79">
         <f>SQRT(AVERAGE(VAR(F47:F49),VAR(F44:F46),VAR(F41:F43),VAR(F38:F40),VAR(F50:F52)))</f>
-        <v>1.8907961794862978E-2</v>
+        <v>2.4286131917220306E-2</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -7162,32 +7169,30 @@
         <v>64</v>
       </c>
       <c r="C58" s="14">
-        <v>0.21125264465808799</v>
+        <v>7.5040250507744004E-3</v>
       </c>
       <c r="D58" s="14">
-        <v>0.217937916517257</v>
+        <v>7.2383858454008899E-3</v>
       </c>
       <c r="E58" s="14">
-        <v>0.33430743217468201</v>
+        <v>8.5130792558819699E-3</v>
       </c>
       <c r="F58" s="23">
-        <v>0.26820993423461897</v>
+        <v>7.1071001495754699E-3</v>
       </c>
       <c r="G58" s="24">
-        <v>0.29286518692970198</v>
+        <v>7.2677835654681201E-3</v>
       </c>
       <c r="H58" s="14">
-        <v>0.39919844269752502</v>
+        <v>7.7906025693330197E-3</v>
       </c>
       <c r="I58" s="13">
-        <v>0.42767554521560602</v>
+        <v>9.4233049420100294E-3</v>
       </c>
       <c r="J58" s="14">
-        <v>0.436054587364196</v>
-      </c>
-      <c r="K58" s="15">
-        <v>0.60318106412887496</v>
-      </c>
+        <v>8.9459177900990897E-3</v>
+      </c>
+      <c r="K58" s="15"/>
       <c r="L58" s="14"/>
       <c r="N58" s="14"/>
       <c r="P58" s="14"/>
@@ -7199,32 +7204,30 @@
         <v>64</v>
       </c>
       <c r="C59" s="14">
-        <v>0.227939903736114</v>
+        <v>8.0529332942390498E-3</v>
       </c>
       <c r="D59" s="14">
-        <v>0.219091191887855</v>
+        <v>8.3321336030915405E-3</v>
       </c>
       <c r="E59" s="14">
-        <v>0.30008718371391202</v>
+        <v>8.4350001144308604E-3</v>
       </c>
       <c r="F59" s="13">
-        <v>0.300247192382812</v>
+        <v>7.3045722143994197E-3</v>
       </c>
       <c r="G59" s="14">
-        <v>0.26857525110244701</v>
+        <v>7.1035965174030104E-3</v>
       </c>
       <c r="H59" s="14">
-        <v>0.48957577347755399</v>
+        <v>9.0476869137143499E-3</v>
       </c>
       <c r="I59" s="13">
-        <v>0.41623505949973999</v>
+        <v>1.2278340960195099E-2</v>
       </c>
       <c r="J59" s="14">
-        <v>0.45325317978858898</v>
-      </c>
-      <c r="K59" s="15">
-        <v>0.63990122079849199</v>
-      </c>
+        <v>8.7052713431072497E-3</v>
+      </c>
+      <c r="K59" s="15"/>
       <c r="L59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
@@ -7237,32 +7240,30 @@
         <v>64</v>
       </c>
       <c r="C60" s="14">
-        <v>0.20687849819660101</v>
+        <v>7.2947684187016299E-3</v>
       </c>
       <c r="D60" s="14">
-        <v>0.22148810327053001</v>
+        <v>6.2520758299498304E-3</v>
       </c>
       <c r="E60" s="14">
-        <v>0.31499463319778398</v>
+        <v>8.1963771658581999E-3</v>
       </c>
       <c r="F60" s="13">
-        <v>0.27914124727249101</v>
+        <v>8.7327741903048105E-3</v>
       </c>
       <c r="G60" s="14">
-        <v>0.29511588811874301</v>
+        <v>6.3183786729237501E-3</v>
       </c>
       <c r="H60" s="14">
-        <v>0.40383812785148598</v>
+        <v>1.2497555364094699E-2</v>
       </c>
       <c r="I60" s="13">
-        <v>0.444102793931961</v>
+        <v>8.1852071864530907E-3</v>
       </c>
       <c r="J60" s="14">
-        <v>0.42564782500267001</v>
-      </c>
-      <c r="K60" s="15">
-        <v>0.61241263151168801</v>
-      </c>
+        <v>8.2549274717494004E-3</v>
+      </c>
+      <c r="K60" s="15"/>
       <c r="L60" s="14"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
@@ -7275,32 +7276,30 @@
         <v>65</v>
       </c>
       <c r="C61" s="14">
-        <v>0.20802605152130099</v>
+        <v>1.3728697065493499E-2</v>
       </c>
       <c r="D61" s="14">
-        <v>0.209519028663635</v>
+        <v>1.53700743647375E-2</v>
       </c>
       <c r="E61" s="14">
-        <v>0.30478656291961598</v>
+        <v>1.4131332898508099E-2</v>
       </c>
       <c r="F61" s="13">
-        <v>0.27459344267845098</v>
+        <v>1.3331087969656E-2</v>
       </c>
       <c r="G61" s="14">
-        <v>0.28437694907188399</v>
+        <v>1.49757124754724E-2</v>
       </c>
       <c r="H61" s="14">
-        <v>0.39271923899650502</v>
+        <v>1.1735484012850701E-2</v>
       </c>
       <c r="I61" s="13">
-        <v>0.40498569607734602</v>
+        <v>1.1044874156409999E-2</v>
       </c>
       <c r="J61" s="14">
-        <v>0.48808407783508301</v>
-      </c>
-      <c r="K61" s="15">
-        <v>0.65152496099472001</v>
-      </c>
+        <v>1.26730080820548E-2</v>
+      </c>
+      <c r="K61" s="15"/>
       <c r="L61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
@@ -7313,32 +7312,30 @@
         <v>65</v>
       </c>
       <c r="C62" s="14">
-        <v>0.18791785836219699</v>
+        <v>1.43640110336804E-2</v>
       </c>
       <c r="D62" s="14">
-        <v>0.22852289676666199</v>
+        <v>1.77260615575127E-2</v>
       </c>
       <c r="E62" s="14">
-        <v>0.277865350246429</v>
+        <v>1.23903722385366E-2</v>
       </c>
       <c r="F62" s="13">
-        <v>0.30907425284385598</v>
+        <v>1.40949645612383E-2</v>
       </c>
       <c r="G62" s="14">
-        <v>0.29416501522064198</v>
+        <v>1.50033948678714E-2</v>
       </c>
       <c r="H62" s="14">
-        <v>0.37643057107925398</v>
+        <v>1.20809001638681E-2</v>
       </c>
       <c r="I62" s="13">
-        <v>0.454870015382766</v>
+        <v>1.3560544287481E-2</v>
       </c>
       <c r="J62" s="14">
-        <v>0.43086272478103599</v>
-      </c>
-      <c r="K62" s="15">
-        <v>0.644830882549285</v>
-      </c>
+        <v>1.2728291918069901E-2</v>
+      </c>
+      <c r="K62" s="15"/>
       <c r="L62" s="14"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
@@ -7351,32 +7348,30 @@
         <v>65</v>
       </c>
       <c r="C63" s="14">
-        <v>0.23043246567249201</v>
+        <v>1.59963287322504E-2</v>
       </c>
       <c r="D63" s="14">
-        <v>0.20511433482170099</v>
+        <v>2.09344383003277E-2</v>
       </c>
       <c r="E63" s="14">
-        <v>0.31316775083541798</v>
+        <v>1.9824377717737499E-2</v>
       </c>
       <c r="F63" s="13">
-        <v>0.287751585245132</v>
+        <v>1.37329043796871E-2</v>
       </c>
       <c r="G63" s="14">
-        <v>0.28409689664840698</v>
+        <v>1.7091323259512299E-2</v>
       </c>
       <c r="H63" s="14">
-        <v>0.389254570007324</v>
+        <v>1.1153554802341E-2</v>
       </c>
       <c r="I63" s="13">
-        <v>0.42206948995590199</v>
+        <v>1.3185743213477701E-2</v>
       </c>
       <c r="J63" s="14">
-        <v>0.41321238875389099</v>
-      </c>
-      <c r="K63" s="15">
-        <v>0.64136344194412198</v>
-      </c>
+        <v>1.2879230423851201E-2</v>
+      </c>
+      <c r="K63" s="15"/>
       <c r="L63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
@@ -7389,32 +7384,30 @@
         <v>61</v>
       </c>
       <c r="C64" s="14">
-        <v>0.201116397976875</v>
+        <v>2.48440811699581E-2</v>
       </c>
       <c r="D64" s="14">
-        <v>0.22436901926994299</v>
+        <v>3.37561548209101E-2</v>
       </c>
       <c r="E64" s="14">
-        <v>0.29330292344093301</v>
+        <v>1.3638728945651501E-2</v>
       </c>
       <c r="F64" s="13">
-        <v>0.27040311694145203</v>
+        <v>1.70829831267423E-2</v>
       </c>
       <c r="G64" s="14">
-        <v>0.30078557133674599</v>
+        <v>2.4336600980757399E-2</v>
       </c>
       <c r="H64" s="14">
-        <v>0.42486527562141402</v>
+        <v>1.92579460554946E-2</v>
       </c>
       <c r="I64" s="13">
-        <v>0.44064292311668402</v>
+        <v>1.3642221486718E-2</v>
       </c>
       <c r="J64" s="14">
-        <v>0.444883912801742</v>
-      </c>
-      <c r="K64" s="15">
-        <v>0.60950392484664895</v>
-      </c>
+        <v>2.63907081301555E-2</v>
+      </c>
+      <c r="K64" s="15"/>
       <c r="L64" s="14"/>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
@@ -7427,32 +7420,30 @@
         <v>61</v>
       </c>
       <c r="C65" s="14">
-        <v>0.22374610602855599</v>
+        <v>1.8175330572464701E-2</v>
       </c>
       <c r="D65" s="14">
-        <v>0.21930792927741999</v>
+        <v>2.54652655067743E-2</v>
       </c>
       <c r="E65" s="14">
-        <v>0.35834267735481201</v>
+        <v>1.43566284793233E-2</v>
       </c>
       <c r="F65" s="13">
-        <v>0.26345041394233698</v>
+        <v>1.69224858017222E-2</v>
       </c>
       <c r="G65" s="14">
-        <v>0.25534409284591603</v>
+        <v>2.9386726105662099E-2</v>
       </c>
       <c r="H65" s="14">
-        <v>0.372070401906967</v>
+        <v>1.2374368443303099E-2</v>
       </c>
       <c r="I65" s="13">
-        <v>0.50869804620742798</v>
+        <v>2.1160720997630899E-2</v>
       </c>
       <c r="J65" s="14">
-        <v>0.43414381146430903</v>
-      </c>
-      <c r="K65" s="15">
-        <v>0.59908908605575495</v>
-      </c>
+        <v>2.4813057194247801E-2</v>
+      </c>
+      <c r="K65" s="15"/>
       <c r="L65" s="14"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
@@ -7465,32 +7456,30 @@
         <v>61</v>
       </c>
       <c r="C66" s="14">
-        <v>0.211307883262634</v>
+        <v>2.5048243280788099E-2</v>
       </c>
       <c r="D66" s="14">
-        <v>0.23504678905010201</v>
+        <v>2.1827395646971001E-2</v>
       </c>
       <c r="E66" s="14">
-        <v>0.281525999307632</v>
+        <v>1.6624127963448899E-2</v>
       </c>
       <c r="F66" s="13">
-        <v>0.28205680847167902</v>
+        <v>1.8188207245561999E-2</v>
       </c>
       <c r="G66" s="14">
-        <v>0.29587802290916398</v>
+        <v>2.4860087166958401E-2</v>
       </c>
       <c r="H66" s="14">
-        <v>0.42498597502708402</v>
+        <v>2.04145433440528E-2</v>
       </c>
       <c r="I66" s="13">
-        <v>0.45511633157730103</v>
+        <v>1.4192058688636801E-2</v>
       </c>
       <c r="J66" s="14">
-        <v>0.458773523569107</v>
-      </c>
-      <c r="K66" s="15">
-        <v>0.61717069149017301</v>
-      </c>
+        <v>2.2699868765587099E-2</v>
+      </c>
+      <c r="K66" s="15"/>
       <c r="L66" s="14"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
@@ -7503,32 +7492,30 @@
         <v>62</v>
       </c>
       <c r="C67" s="14">
-        <v>0.21873225271701799</v>
+        <v>8.9529894480165403E-3</v>
       </c>
       <c r="D67" s="14">
-        <v>0.22333720326423601</v>
+        <v>1.11727837676811E-2</v>
       </c>
       <c r="E67" s="14">
-        <v>0.28432071208953802</v>
+        <v>8.1967908557681393E-3</v>
       </c>
       <c r="F67" s="13">
-        <v>0.30781739950179998</v>
+        <v>1.11735194928923E-2</v>
       </c>
       <c r="G67" s="14">
-        <v>0.27452668547630299</v>
+        <v>8.5727328400749502E-3</v>
       </c>
       <c r="H67" s="14">
-        <v>0.402167558670043</v>
+        <v>1.1567210013544001E-2</v>
       </c>
       <c r="I67" s="13">
-        <v>0.43353468179702698</v>
+        <v>1.2242764660436899E-2</v>
       </c>
       <c r="J67" s="14">
-        <v>0.41976067423820401</v>
-      </c>
-      <c r="K67" s="15">
-        <v>0.63322162628173795</v>
-      </c>
+        <v>9.1650986740755298E-3</v>
+      </c>
+      <c r="K67" s="15"/>
       <c r="L67" s="14"/>
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
@@ -7541,32 +7528,30 @@
         <v>62</v>
       </c>
       <c r="C68" s="14">
-        <v>0.22666491568088501</v>
+        <v>9.9591479859527099E-3</v>
       </c>
       <c r="D68" s="14">
-        <v>0.205396592617034</v>
+        <v>1.34098989717252E-2</v>
       </c>
       <c r="E68" s="14">
-        <v>0.37318119406700101</v>
+        <v>1.01212865798814E-2</v>
       </c>
       <c r="F68" s="13">
-        <v>0.28498378396034202</v>
+        <v>9.6129079719856798E-3</v>
       </c>
       <c r="G68" s="14">
-        <v>0.28410384058952298</v>
+        <v>9.5337746785457492E-3</v>
       </c>
       <c r="H68" s="14">
-        <v>0.378244668245315</v>
+        <v>1.08376917381193E-2</v>
       </c>
       <c r="I68" s="13">
-        <v>0.437939792871475</v>
+        <v>1.07676411923607E-2</v>
       </c>
       <c r="J68" s="14">
-        <v>0.391777694225311</v>
-      </c>
-      <c r="K68" s="15">
-        <v>0.65643614530563299</v>
-      </c>
+        <v>1.0044770213557199E-2</v>
+      </c>
+      <c r="K68" s="15"/>
       <c r="L68" s="14"/>
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
@@ -7579,32 +7564,30 @@
         <v>62</v>
       </c>
       <c r="C69" s="14">
-        <v>0.21066893637180301</v>
+        <v>9.1030089926751791E-3</v>
       </c>
       <c r="D69" s="14">
-        <v>0.237375542521476</v>
+        <v>9.1959459845963702E-3</v>
       </c>
       <c r="E69" s="14">
-        <v>0.30689117312431302</v>
+        <v>8.8858879895684102E-3</v>
       </c>
       <c r="F69" s="13">
-        <v>0.267723709344863</v>
+        <v>8.9623258887396307E-3</v>
       </c>
       <c r="G69" s="14">
-        <v>0.25126150250434798</v>
+        <v>9.0001432764656494E-3</v>
       </c>
       <c r="H69" s="14">
-        <v>0.43090048432350098</v>
+        <v>1.07338163471198E-2</v>
       </c>
       <c r="I69" s="13">
-        <v>0.44108331203460599</v>
+        <v>1.2544201449407299E-2</v>
       </c>
       <c r="J69" s="14">
-        <v>0.42999801039695701</v>
-      </c>
-      <c r="K69" s="15">
-        <v>0.67598432302474898</v>
-      </c>
+        <v>1.08672982024095E-2</v>
+      </c>
+      <c r="K69" s="15"/>
       <c r="L69" s="14"/>
       <c r="N69" s="14"/>
       <c r="O69" s="14"/>
@@ -7617,32 +7600,30 @@
         <v>63</v>
       </c>
       <c r="C70" s="14">
-        <v>0.21035860478877999</v>
+        <v>3.7549807376672302E-2</v>
       </c>
       <c r="D70" s="14">
-        <v>0.213184714317321</v>
+        <v>3.06317670799135E-2</v>
       </c>
       <c r="E70" s="14">
-        <v>0.337762922048568</v>
+        <v>2.0558266074814199E-2</v>
       </c>
       <c r="F70" s="13">
-        <v>0.251864433288574</v>
+        <v>2.9747959927974299E-2</v>
       </c>
       <c r="G70" s="14">
-        <v>0.25466990470886203</v>
+        <v>4.2249315930941903E-2</v>
       </c>
       <c r="H70" s="14">
-        <v>0.365496486425399</v>
+        <v>3.7241861593185099E-2</v>
       </c>
       <c r="I70" s="13">
-        <v>0.42688235640525801</v>
+        <v>3.1282403492189102E-2</v>
       </c>
       <c r="J70" s="14">
-        <v>0.38398116827011097</v>
-      </c>
-      <c r="K70" s="15">
-        <v>0.58442980051040605</v>
-      </c>
+        <v>4.3432546821800901E-2</v>
+      </c>
+      <c r="K70" s="15"/>
       <c r="L70" s="14"/>
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
@@ -7655,32 +7636,30 @@
         <v>63</v>
       </c>
       <c r="C71" s="14">
-        <v>0.20720569789409601</v>
+        <v>3.7803631519156299E-2</v>
       </c>
       <c r="D71" s="14">
-        <v>0.19992031157016699</v>
+        <v>4.8180687732679299E-2</v>
       </c>
       <c r="E71" s="14">
-        <v>0.31363931298255898</v>
+        <v>2.32897706545559E-2</v>
       </c>
       <c r="F71" s="13">
-        <v>0.25640618801116899</v>
+        <v>2.23781485715225E-2</v>
       </c>
       <c r="G71" s="14">
-        <v>0.28449270129203702</v>
+        <v>4.6200360460751502E-2</v>
       </c>
       <c r="H71" s="14">
-        <v>0.345902979373931</v>
+        <v>3.2761359093893098E-2</v>
       </c>
       <c r="I71" s="13">
-        <v>0.39318835735321001</v>
+        <v>3.0033473450571401E-2</v>
       </c>
       <c r="J71" s="14">
-        <v>0.42788198590278598</v>
-      </c>
-      <c r="K71" s="15">
-        <v>0.60468018054962103</v>
-      </c>
+        <v>3.1149729096717899E-2</v>
+      </c>
+      <c r="K71" s="15"/>
       <c r="L71" s="14"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
@@ -7693,32 +7672,30 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
-        <v>0.201291307806968</v>
+        <v>2.5570192230580199E-2</v>
       </c>
       <c r="D72" s="14">
-        <v>0.23767690360546101</v>
+        <v>3.2008340679804403E-2</v>
       </c>
       <c r="E72" s="14">
-        <v>0.33737644553184498</v>
+        <v>2.5373243145635101E-2</v>
       </c>
       <c r="F72" s="18">
-        <v>0.28944626450538602</v>
+        <v>2.9294238429867898E-2</v>
       </c>
       <c r="G72" s="19">
-        <v>0.25025346875190702</v>
+        <v>3.9290772983146198E-2</v>
       </c>
       <c r="H72" s="14">
-        <v>0.348689794540405</v>
+        <v>2.0274327460790699E-2</v>
       </c>
       <c r="I72" s="18">
-        <v>0.40566903352737399</v>
+        <v>2.8064504393364598E-2</v>
       </c>
       <c r="J72" s="19">
-        <v>0.42878481745719899</v>
-      </c>
-      <c r="K72" s="20">
-        <v>0.61813259124755804</v>
-      </c>
+        <v>3.96423879571677E-2</v>
+      </c>
+      <c r="K72" s="20"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
@@ -7732,39 +7709,39 @@
       </c>
       <c r="C73" s="23">
         <f>AVERAGE(C58:C72)</f>
-        <v>0.21223596831162714</v>
+        <v>1.7596479744760234E-2</v>
       </c>
       <c r="D73" s="24">
         <f t="shared" ref="D73:K73" si="4">AVERAGE(D58:D72)</f>
-        <v>0.21981923182805335</v>
+        <v>2.0100093979471698E-2</v>
       </c>
       <c r="E73" s="24">
         <f t="shared" si="4"/>
-        <v>0.31543681820233616</v>
+        <v>1.4169018005306672E-2</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="4"/>
-        <v>0.27954465150833091</v>
+        <v>1.5177745328124662E-2</v>
       </c>
       <c r="G73" s="24">
         <f t="shared" si="4"/>
-        <v>0.27803406516710871</v>
+        <v>2.0079380252130317E-2</v>
       </c>
       <c r="H73" s="25">
         <f t="shared" si="4"/>
-        <v>0.39628935654958042</v>
+        <v>1.5984593861046958E-2</v>
       </c>
       <c r="I73" s="24">
         <f t="shared" si="4"/>
-        <v>0.43417956233024563</v>
+        <v>1.610720030382284E-2</v>
       </c>
       <c r="J73" s="24">
         <f t="shared" si="4"/>
-        <v>0.43114002545674618</v>
-      </c>
-      <c r="K73" s="25">
+        <v>1.8826140805643383E-2</v>
+      </c>
+      <c r="K73" s="25" t="e">
         <f t="shared" si="4"/>
-        <v>0.62612417141596433</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
@@ -7779,39 +7756,39 @@
       </c>
       <c r="C74" s="18">
         <f t="shared" ref="C74:K74" si="5">SQRT(AVERAGE(VAR(C67:C69),VAR(C64:C66),VAR(C61:C63),VAR(C58:C60),VAR(C70:C72)))</f>
-        <v>1.2565416766245157E-2</v>
+        <v>3.6326366185322496E-3</v>
       </c>
       <c r="D74" s="19">
         <f t="shared" si="5"/>
-        <v>1.3010886388706915E-2</v>
+        <v>5.4026068555830609E-3</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" si="5"/>
-        <v>3.0562881567842207E-2</v>
+        <v>2.2070322957456426E-3</v>
       </c>
       <c r="F74" s="18">
         <f t="shared" si="5"/>
-        <v>1.7214201974122739E-2</v>
+        <v>1.9878579613219838E-3</v>
       </c>
       <c r="G74" s="19">
         <f t="shared" si="5"/>
-        <v>1.7341255408263374E-2</v>
+        <v>2.082837391233825E-3</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="5"/>
-        <v>2.9672849887671757E-2</v>
+        <v>4.5293728778386718E-3</v>
       </c>
       <c r="I74" s="19">
         <f t="shared" si="5"/>
-        <v>2.2039987565454517E-2</v>
+        <v>2.3387833242891499E-3</v>
       </c>
       <c r="J74" s="19">
         <f t="shared" si="5"/>
-        <v>2.4191414301316938E-2</v>
-      </c>
-      <c r="K74" s="20">
+        <v>2.9613590624393573E-3</v>
+      </c>
+      <c r="K74" s="20" t="e">
         <f t="shared" si="5"/>
-        <v>1.5620620925803951E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
@@ -7840,7 +7817,7 @@
     </row>
     <row r="76" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7905,7 +7882,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E80" s="156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -7925,13 +7902,13 @@
         <v>64</v>
       </c>
       <c r="C81" s="141">
-        <v>1.6667852178215901E-2</v>
+        <v>8.7268352508544905E-3</v>
       </c>
       <c r="D81" s="144">
-        <v>1.8049301579594602E-2</v>
+        <v>9.7450390458106995E-3</v>
       </c>
       <c r="E81" s="142">
-        <v>1.7696791889127102E-2</v>
+        <v>7.4905849936696299E-3</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -7951,13 +7928,13 @@
         <v>64</v>
       </c>
       <c r="C82" s="91">
-        <v>1.6078019514679898E-2</v>
+        <v>7.4777049012482097E-3</v>
       </c>
       <c r="D82" s="92">
-        <v>2.25488450378179E-2</v>
+        <v>9.6356738358736004E-3</v>
       </c>
       <c r="E82" s="143">
-        <v>1.6535814684838401E-2</v>
+        <v>6.7886198314870798E-3</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
@@ -7977,13 +7954,13 @@
         <v>64</v>
       </c>
       <c r="C83" s="91">
-        <v>1.9779104739427501E-2</v>
+        <v>7.0374375209212303E-3</v>
       </c>
       <c r="D83" s="92">
-        <v>2.1301070228219001E-2</v>
+        <v>1.12153990194201E-2</v>
       </c>
       <c r="E83" s="143">
-        <v>1.45021342903321E-2</v>
+        <v>7.0684037498149601E-3</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -8003,13 +7980,13 @@
         <v>64</v>
       </c>
       <c r="C84" s="91">
-        <v>1.56125463545322E-2</v>
+        <v>7.1608009748160796E-3</v>
       </c>
       <c r="D84" s="92">
-        <v>2.0329028367996198E-2</v>
+        <v>1.04437544941902E-2</v>
       </c>
       <c r="E84" s="143">
-        <v>1.6714373924117201E-2</v>
+        <v>1.0963936309545E-2</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -8029,13 +8006,13 @@
         <v>64</v>
       </c>
       <c r="C85" s="91">
-        <v>1.5286703594028899E-2</v>
+        <v>9.94135066866874E-3</v>
       </c>
       <c r="D85" s="92">
-        <v>1.6476476565003301E-2</v>
+        <v>1.1926342733204301E-2</v>
       </c>
       <c r="E85" s="143">
-        <v>1.8551284990915299E-2</v>
+        <v>7.5857028084662104E-3</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -8055,13 +8032,13 @@
         <v>64</v>
       </c>
       <c r="C86" s="91">
-        <v>1.7467230558395299E-2</v>
+        <v>8.7508372962474806E-3</v>
       </c>
       <c r="D86" s="92">
-        <v>1.7925927415490098E-2</v>
+        <v>1.02286795154213E-2</v>
       </c>
       <c r="E86" s="143">
-        <v>1.99966846030015E-2</v>
+        <v>7.6650202350668998E-3</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
@@ -8081,13 +8058,13 @@
         <v>64</v>
       </c>
       <c r="C87" s="91">
-        <v>1.8066249787807399E-2</v>
+        <v>6.9655361585318999E-3</v>
       </c>
       <c r="D87" s="92">
-        <v>1.92266069352626E-2</v>
+        <v>9.8161986097693409E-3</v>
       </c>
       <c r="E87" s="143">
-        <v>1.7893117539083798E-2</v>
+        <v>8.5898065697566604E-3</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -8107,13 +8084,13 @@
         <v>64</v>
       </c>
       <c r="C88" s="91">
-        <v>1.6140693798661201E-2</v>
+        <v>7.2869667783379503E-3</v>
       </c>
       <c r="D88" s="92">
-        <v>1.73850134015083E-2</v>
+        <v>1.05745932087302E-2</v>
       </c>
       <c r="E88" s="143">
-        <v>1.83061090173775E-2</v>
+        <v>7.5026046881262404E-3</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -8133,13 +8110,13 @@
         <v>64</v>
       </c>
       <c r="C89" s="91">
-        <v>1.8722215667366902E-2</v>
+        <v>9.2905098572373408E-3</v>
       </c>
       <c r="D89" s="92">
-        <v>2.4417348206043198E-2</v>
+        <v>1.2096858583390701E-2</v>
       </c>
       <c r="E89" s="143">
-        <v>1.63909771708797E-2</v>
+        <v>7.4915442728361297E-3</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
@@ -8159,13 +8136,13 @@
         <v>64</v>
       </c>
       <c r="C90" s="77">
-        <v>1.63806844502687E-2</v>
+        <v>7.54845142364501E-3</v>
       </c>
       <c r="D90" s="78">
-        <v>2.0743932574987401E-2</v>
+        <v>1.0568807832896701E-2</v>
       </c>
       <c r="E90" s="79">
-        <v>1.9055752895412299E-2</v>
+        <v>1.05492712979199E-2</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -8185,13 +8162,13 @@
         <v>65</v>
       </c>
       <c r="C91" s="141">
-        <v>1.92619785666465E-2</v>
+        <v>8.9042419567704201E-3</v>
       </c>
       <c r="D91" s="144">
-        <v>2.4856843054294499E-2</v>
+        <v>1.4977054670453E-2</v>
       </c>
       <c r="E91" s="142">
-        <v>1.8219766247772901E-2</v>
+        <v>1.10537195240873E-2</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -8211,13 +8188,13 @@
         <v>65</v>
       </c>
       <c r="C92" s="91">
-        <v>1.7002390697598398E-2</v>
+        <v>9.79395024478435E-3</v>
       </c>
       <c r="D92" s="92">
-        <v>2.4493500590324398E-2</v>
+        <v>1.82740241289138E-2</v>
       </c>
       <c r="E92" s="143">
-        <v>1.9163783431022301E-2</v>
+        <v>1.56745052246017E-2</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -8237,13 +8214,13 @@
         <v>65</v>
       </c>
       <c r="C93" s="91">
-        <v>1.8430087715387299E-2</v>
+        <v>7.7836960554122899E-3</v>
       </c>
       <c r="D93" s="92">
-        <v>2.5632860139012299E-2</v>
+        <v>1.19908861815929E-2</v>
       </c>
       <c r="E93" s="143">
-        <v>1.83092472102451E-2</v>
+        <v>1.37248110417354E-2</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
@@ -8263,13 +8240,13 @@
         <v>65</v>
       </c>
       <c r="C94" s="91">
-        <v>1.9410245120525301E-2</v>
+        <v>7.9913558438420296E-3</v>
       </c>
       <c r="D94" s="92">
-        <v>2.2249113768339102E-2</v>
+        <v>1.6445958986878301E-2</v>
       </c>
       <c r="E94" s="143">
-        <v>1.94918505923589E-2</v>
+        <v>1.2012473357803401E-2</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
@@ -8289,13 +8266,13 @@
         <v>65</v>
       </c>
       <c r="C95" s="91">
-        <v>1.9462903961539199E-2</v>
+        <v>1.0495684109628201E-2</v>
       </c>
       <c r="D95" s="92">
-        <v>2.62732487171888E-2</v>
+        <v>1.4292038045823499E-2</v>
       </c>
       <c r="E95" s="143">
-        <v>2.0297866402002599E-2</v>
+        <v>1.3444747782849299E-2</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
@@ -8315,13 +8292,13 @@
         <v>65</v>
       </c>
       <c r="C96" s="91">
-        <v>1.8697446212172501E-2</v>
+        <v>8.8728051632642694E-3</v>
       </c>
       <c r="D96" s="92">
-        <v>2.6500653475522901E-2</v>
+        <v>1.5369419008493399E-2</v>
       </c>
       <c r="E96" s="143">
-        <v>1.8000392832438698E-2</v>
+        <v>1.01248813950506E-2</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -8341,13 +8318,13 @@
         <v>65</v>
       </c>
       <c r="C97" s="91">
-        <v>2.0413985475897699E-2</v>
+        <v>9.6192555502057006E-3</v>
       </c>
       <c r="D97" s="92">
-        <v>3.0231680721044499E-2</v>
+        <v>1.4141744934022401E-2</v>
       </c>
       <c r="E97" s="143">
-        <v>1.78431468524539E-2</v>
+        <v>1.17849207276952E-2</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
@@ -8367,13 +8344,13 @@
         <v>65</v>
       </c>
       <c r="C98" s="91">
-        <v>2.0400730893015799E-2</v>
+        <v>9.4760190695524198E-3</v>
       </c>
       <c r="D98" s="92">
-        <v>2.4475801736116399E-2</v>
+        <v>1.75413880497217E-2</v>
       </c>
       <c r="E98" s="143">
-        <v>2.0681174822106099E-2</v>
+        <v>1.50155058367637E-2</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -8393,13 +8370,13 @@
         <v>65</v>
       </c>
       <c r="C99" s="91">
-        <v>2.0577559247612901E-2</v>
+        <v>9.26596391946077E-3</v>
       </c>
       <c r="D99" s="92">
-        <v>2.01041381806135E-2</v>
+        <v>1.5034420415759E-2</v>
       </c>
       <c r="E99" s="143">
-        <v>1.8190376037659699E-2</v>
+        <v>1.09514624699287E-2</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
@@ -8419,13 +8396,13 @@
         <v>65</v>
       </c>
       <c r="C100" s="77">
-        <v>1.9877368584275201E-2</v>
+        <v>8.4307193756103498E-3</v>
       </c>
       <c r="D100" s="78">
-        <v>2.01836246997118E-2</v>
+        <v>1.3530442491173701E-2</v>
       </c>
       <c r="E100" s="79">
-        <v>2.2158814751986E-2</v>
+        <v>1.19124987639673E-2</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
@@ -8445,13 +8422,13 @@
         <v>61</v>
       </c>
       <c r="C101" s="141">
-        <v>1.8806871026754299E-2</v>
+        <v>2.1939804777503E-2</v>
       </c>
       <c r="D101" s="144">
-        <v>2.47912015765905E-2</v>
+        <v>5.2546687424182802E-2</v>
       </c>
       <c r="E101" s="142">
-        <v>1.7987515220853199E-2</v>
+        <v>2.1174171979484201E-2</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
@@ -8471,13 +8448,13 @@
         <v>61</v>
       </c>
       <c r="C102" s="91">
-        <v>2.10872162133455E-2</v>
+        <v>2.72458437830209E-2</v>
       </c>
       <c r="D102" s="92">
-        <v>3.02234385162591E-2</v>
+        <v>3.5778783261775901E-2</v>
       </c>
       <c r="E102" s="143">
-        <v>2.39820936600037E-2</v>
+        <v>2.2446265698849801E-2</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -8497,13 +8474,13 @@
         <v>61</v>
       </c>
       <c r="C103" s="91">
-        <v>1.9672764465212801E-2</v>
+        <v>1.3265808112919299E-2</v>
       </c>
       <c r="D103" s="92">
-        <v>2.2472301498055399E-2</v>
+        <v>3.70906256139278E-2</v>
       </c>
       <c r="E103" s="143">
-        <v>3.2114315637880197E-2</v>
+        <v>1.93827229108068E-2</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
@@ -8523,13 +8500,13 @@
         <v>61</v>
       </c>
       <c r="C104" s="91">
-        <v>2.3884851485490799E-2</v>
+        <v>2.2704122588038399E-2</v>
       </c>
       <c r="D104" s="92">
-        <v>2.2391894832253401E-2</v>
+        <v>4.3097212910652098E-2</v>
       </c>
       <c r="E104" s="143">
-        <v>2.3405982363447601E-2</v>
+        <v>1.7918690574667901E-2</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -8549,13 +8526,13 @@
         <v>61</v>
       </c>
       <c r="C105" s="91">
-        <v>2.56481226533651E-2</v>
+        <v>1.7182571813464099E-2</v>
       </c>
       <c r="D105" s="92">
-        <v>3.1147368252277301E-2</v>
+        <v>2.1667106077075001E-2</v>
       </c>
       <c r="E105" s="143">
-        <v>2.3291476666343999E-2</v>
+        <v>1.7204883113612599E-2</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -8575,13 +8552,13 @@
         <v>61</v>
       </c>
       <c r="C106" s="91">
-        <v>2.5436289608478501E-2</v>
+        <v>1.62098780274391E-2</v>
       </c>
       <c r="D106" s="92">
-        <v>2.5138759985566101E-2</v>
+        <v>4.96456511318683E-2</v>
       </c>
       <c r="E106" s="143">
-        <v>2.54394394194229E-2</v>
+        <v>1.8703510147777401E-2</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
@@ -8601,13 +8578,13 @@
         <v>61</v>
       </c>
       <c r="C107" s="91">
-        <v>2.1615283563733101E-2</v>
+        <v>2.2752886638045301E-2</v>
       </c>
       <c r="D107" s="92">
-        <v>2.8518425300717298E-2</v>
+        <v>3.84725853800773E-2</v>
       </c>
       <c r="E107" s="143">
-        <v>1.9805812589607001E-2</v>
+        <v>1.4101614559865401E-2</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -8627,13 +8604,13 @@
         <v>61</v>
       </c>
       <c r="C108" s="91">
-        <v>2.57725324481725E-2</v>
+        <v>1.4234715141355899E-2</v>
       </c>
       <c r="D108" s="92">
-        <v>3.18870171904563E-2</v>
+        <v>2.3365437984466501E-2</v>
       </c>
       <c r="E108" s="143">
-        <v>2.33292954146147E-2</v>
+        <v>1.2994603560291701E-2</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -8653,13 +8630,13 @@
         <v>61</v>
       </c>
       <c r="C109" s="91">
-        <v>2.1809211000800102E-2</v>
+        <v>2.6339150965213699E-2</v>
       </c>
       <c r="D109" s="92">
-        <v>3.5575818270444801E-2</v>
+        <v>2.8890158981084799E-2</v>
       </c>
       <c r="E109" s="143">
-        <v>2.1155498132104999E-2</v>
+        <v>1.71137537343788E-2</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -8679,13 +8656,13 @@
         <v>61</v>
       </c>
       <c r="C110" s="77">
-        <v>2.8632614761590899E-2</v>
+        <v>2.07232125103473E-2</v>
       </c>
       <c r="D110" s="78">
-        <v>4.06203158199787E-2</v>
+        <v>8.1206507980823503E-2</v>
       </c>
       <c r="E110" s="79">
-        <v>2.50003992189392E-2</v>
+        <v>1.82819529695952E-2</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
@@ -8705,13 +8682,13 @@
         <v>62</v>
       </c>
       <c r="C111" s="141">
-        <v>1.8131311982870098E-2</v>
+        <v>1.2218913063406899E-2</v>
       </c>
       <c r="D111" s="144">
-        <v>2.3783491924405001E-2</v>
+        <v>1.3626481406390599E-2</v>
       </c>
       <c r="E111" s="142">
-        <v>2.17591255973365E-2</v>
+        <v>9.1628654932763304E-3</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -8731,13 +8708,13 @@
         <v>62</v>
       </c>
       <c r="C112" s="91">
-        <v>1.69826094061136E-2</v>
+        <v>9.3679698184132507E-3</v>
       </c>
       <c r="D112" s="92">
-        <v>1.7936186864972101E-2</v>
+        <v>1.29832457751035E-2</v>
       </c>
       <c r="E112" s="143">
-        <v>2.02600625572813E-2</v>
+        <v>9.4051952388040996E-3</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
@@ -8757,13 +8734,13 @@
         <v>62</v>
       </c>
       <c r="C113" s="91">
-        <v>1.5751728788018199E-2</v>
+        <v>1.07637410983443E-2</v>
       </c>
       <c r="D113" s="92">
-        <v>2.2614041343331299E-2</v>
+        <v>1.30267199128866E-2</v>
       </c>
       <c r="E113" s="143">
-        <v>2.1215453535059901E-2</v>
+        <v>9.2773830725491405E-3</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -8783,13 +8760,13 @@
         <v>62</v>
       </c>
       <c r="C114" s="91">
-        <v>1.9319863989949199E-2</v>
+        <v>1.0773403570055899E-2</v>
       </c>
       <c r="D114" s="92">
-        <v>2.0946243777871101E-2</v>
+        <v>1.15136355161666E-2</v>
       </c>
       <c r="E114" s="143">
-        <v>2.6624639447795299E-2</v>
+        <v>8.7658089132524406E-3</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
@@ -8809,13 +8786,13 @@
         <v>62</v>
       </c>
       <c r="C115" s="91">
-        <v>1.9205199554562499E-2</v>
+        <v>8.0516505986452103E-3</v>
       </c>
       <c r="D115" s="92">
-        <v>2.2125391289591699E-2</v>
+        <v>1.22598083689808E-2</v>
       </c>
       <c r="E115" s="143">
-        <v>2.0280140881600201E-2</v>
+        <v>8.1579150913292792E-3</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -8835,13 +8812,13 @@
         <v>62</v>
       </c>
       <c r="C116" s="91">
-        <v>2.0234161987900699E-2</v>
+        <v>8.9833075180649705E-3</v>
       </c>
       <c r="D116" s="92">
-        <v>1.7809983342885902E-2</v>
+        <v>1.5491843223571699E-2</v>
       </c>
       <c r="E116" s="143">
-        <v>2.03234584474963E-2</v>
+        <v>1.0017557541796099E-2</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -8861,13 +8838,13 @@
         <v>62</v>
       </c>
       <c r="C117" s="91">
-        <v>1.9340032711625099E-2</v>
+        <v>8.3230882883071899E-3</v>
       </c>
       <c r="D117" s="92">
-        <v>2.0907381549477501E-2</v>
+        <v>1.0882598347961899E-2</v>
       </c>
       <c r="E117" s="143">
-        <v>2.07358928448103E-2</v>
+        <v>8.66293588802723E-3</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
@@ -8887,13 +8864,13 @@
         <v>62</v>
       </c>
       <c r="C118" s="91">
-        <v>1.74144674092531E-2</v>
+        <v>1.1264922097325301E-2</v>
       </c>
       <c r="D118" s="92">
-        <v>2.7200171723961799E-2</v>
+        <v>1.2400400824844801E-2</v>
       </c>
       <c r="E118" s="143">
-        <v>2.05514489127302E-2</v>
+        <v>9.5631375562364104E-3</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -8913,13 +8890,13 @@
         <v>62</v>
       </c>
       <c r="C119" s="91">
-        <v>1.7023636028170499E-2</v>
+        <v>9.1419592499732902E-3</v>
       </c>
       <c r="D119" s="92">
-        <v>2.4738725274801199E-2</v>
+        <v>1.3123290613293599E-2</v>
       </c>
       <c r="E119" s="143">
-        <v>2.1101158259652902E-2</v>
+        <v>9.4565358375312495E-3</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -8939,13 +8916,13 @@
         <v>62</v>
       </c>
       <c r="C120" s="77">
-        <v>1.7427604645490601E-2</v>
+        <v>9.6753481775522197E-3</v>
       </c>
       <c r="D120" s="78">
-        <v>2.54694074392318E-2</v>
+        <v>1.32243763655424E-2</v>
       </c>
       <c r="E120" s="79">
-        <v>2.0757080808363099E-2</v>
+        <v>9.3804008901597295E-3</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
@@ -8965,13 +8942,13 @@
         <v>63</v>
       </c>
       <c r="C121" s="141">
-        <v>2.3151567205786702E-2</v>
+        <v>2.9176315292715999E-2</v>
       </c>
       <c r="D121" s="144">
-        <v>3.35672982037067E-2</v>
+        <v>4.4185902923345503E-2</v>
       </c>
       <c r="E121" s="142">
-        <v>3.3940056189785302E-2</v>
+        <v>2.9753992741115801E-2</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
@@ -8991,13 +8968,13 @@
         <v>63</v>
       </c>
       <c r="C122" s="91">
-        <v>1.8849598243832501E-2</v>
+        <v>1.8494451418518999E-2</v>
       </c>
       <c r="D122" s="92">
-        <v>1.9802382215857499E-2</v>
+        <v>2.3684332147240601E-2</v>
       </c>
       <c r="E122" s="143">
-        <v>2.65321661767003E-2</v>
+        <v>2.34383847236697E-2</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
@@ -9017,13 +8994,13 @@
         <v>63</v>
       </c>
       <c r="C123" s="91">
-        <v>1.8669707700610098E-2</v>
+        <v>2.3015717044472601E-2</v>
       </c>
       <c r="D123" s="92">
-        <v>2.7091788128018299E-2</v>
+        <v>4.1591722518205601E-2</v>
       </c>
       <c r="E123" s="143">
-        <v>2.8228494729134999E-2</v>
+        <v>2.17855177238566E-2</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -9043,13 +9020,13 @@
         <v>63</v>
       </c>
       <c r="C124" s="91">
-        <v>2.09810379892587E-2</v>
+        <v>1.2632722966372901E-2</v>
       </c>
       <c r="D124" s="92">
-        <v>2.54551377147436E-2</v>
+        <v>3.3931717276573098E-2</v>
       </c>
       <c r="E124" s="143">
-        <v>3.00062314051209E-2</v>
+        <v>2.5826403031027699E-2</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
@@ -9069,13 +9046,13 @@
         <v>63</v>
       </c>
       <c r="C125" s="91">
-        <v>2.0773572847247099E-2</v>
+        <v>2.8655460104346199E-2</v>
       </c>
       <c r="D125" s="92">
-        <v>2.8265642002224901E-2</v>
+        <v>2.2819740697741502E-2</v>
       </c>
       <c r="E125" s="143">
-        <v>3.55007238909055E-2</v>
+        <v>1.6471003920944E-2</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
@@ -9095,13 +9072,13 @@
         <v>63</v>
       </c>
       <c r="C126" s="91">
-        <v>2.0565954968333199E-2</v>
+        <v>1.88517402857542E-2</v>
       </c>
       <c r="D126" s="92">
-        <v>2.7216590940952301E-2</v>
+        <v>2.46287826448678E-2</v>
       </c>
       <c r="E126" s="143">
-        <v>3.1997662683071297E-2</v>
+        <v>2.5332535856226902E-2</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
@@ -9121,13 +9098,13 @@
         <v>63</v>
       </c>
       <c r="C127" s="91">
-        <v>2.0544989034533501E-2</v>
+        <v>2.1283840760588601E-2</v>
       </c>
       <c r="D127" s="92">
-        <v>2.6210093870759E-2</v>
+        <v>2.96859983354806E-2</v>
       </c>
       <c r="E127" s="143">
-        <v>2.9936566216291999E-2</v>
+        <v>2.3575333683550199E-2</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
@@ -9147,13 +9124,13 @@
         <v>63</v>
       </c>
       <c r="C128" s="91">
-        <v>1.9838150590658101E-2</v>
+        <v>2.5413718074560099E-2</v>
       </c>
       <c r="D128" s="92">
-        <v>1.91923081874847E-2</v>
+        <v>3.2116122543811798E-2</v>
       </c>
       <c r="E128" s="143">
-        <v>3.36762629261219E-2</v>
+        <v>2.2812349976957198E-2</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
@@ -9173,13 +9150,13 @@
         <v>63</v>
       </c>
       <c r="C129" s="91">
-        <v>2.2240245714783599E-2</v>
+        <v>1.65686979889869E-2</v>
       </c>
       <c r="D129" s="92">
-        <v>2.3095740005373899E-2</v>
+        <v>1.7781848087906799E-2</v>
       </c>
       <c r="E129" s="143">
-        <v>2.5701218464533802E-2</v>
+        <v>2.61437985778738E-2</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -9199,13 +9176,13 @@
         <v>63</v>
       </c>
       <c r="C130" s="77">
-        <v>2.09177900105714E-2</v>
+        <v>2.2170346230268399E-2</v>
       </c>
       <c r="D130" s="78">
-        <v>2.56377849727869E-2</v>
+        <v>2.0086519420146901E-2</v>
       </c>
       <c r="E130" s="79">
-        <v>2.8050607818703499E-2</v>
+        <v>3.11615235013636E-2</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -9226,15 +9203,15 @@
       </c>
       <c r="C131" s="141">
         <f>AVERAGE(C81:C130)</f>
-        <v>1.9669299703091333E-2</v>
+        <v>1.3764908602461191E-2</v>
       </c>
       <c r="D131" s="144">
         <f>AVERAGE(D81:D130)</f>
-        <v>2.4304746948182538E-2</v>
+        <v>2.1773091349750712E-2</v>
       </c>
       <c r="E131" s="142">
         <f>AVERAGE(E81:E130)</f>
-        <v>2.2413794806016886E-2</v>
+        <v>1.4497355387800974E-2</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
@@ -9255,15 +9232,15 @@
       </c>
       <c r="C132" s="77">
         <f>SQRT(AVERAGE(VAR(C111:C120),VAR(C101:C110),VAR(C91:C100),VAR(C81:C90),VAR(C121:C130)))</f>
-        <v>1.8409558133422516E-3</v>
+        <v>3.3068778902151201E-3</v>
       </c>
       <c r="D132" s="78">
         <f>SQRT(AVERAGE(VAR(D111:D120),VAR(D101:D110),VAR(D91:D100),VAR(D81:D90),VAR(D121:D130)))</f>
-        <v>3.9259860622513432E-3</v>
+        <v>8.7888919658806169E-3</v>
       </c>
       <c r="E132" s="79">
         <f>SQRT(AVERAGE(VAR(E111:E120),VAR(E101:E110),VAR(E91:E100),VAR(E81:E90),VAR(E121:E130)))</f>
-        <v>2.594548289673859E-3</v>
+        <v>2.4890930085380335E-3</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
@@ -9284,15 +9261,15 @@
       </c>
       <c r="C133" s="148">
         <f>_xlfn.CONFIDENCE.NORM(0.05, C132, 45)</f>
-        <v>5.3787975553332569E-4</v>
+        <v>9.6618433656929406E-4</v>
       </c>
       <c r="D133" s="149">
         <f>_xlfn.CONFIDENCE.NORM(0.05, D132, 45)</f>
-        <v>1.1470717591842653E-3</v>
+        <v>2.5678873049289276E-3</v>
       </c>
       <c r="E133" s="150">
         <f>_xlfn.CONFIDENCE.NORM(0.05, E132, 50)</f>
-        <v>7.1915887942378316E-4</v>
+        <v>6.8992870393898102E-4</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
@@ -9399,12 +9376,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="M16:Q16"/>
@@ -9412,6 +9383,12 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9423,7 +9400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9B92CD-4511-4160-BDB0-ADF0134A75B4}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9437,14 +9414,14 @@
       </c>
       <c r="C2" s="221"/>
       <c r="D2" s="165" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9455,7 +9432,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9473,7 +9450,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="158" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9493,7 +9470,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="158" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="24.6" thickTop="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9481,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9522,12 +9499,12 @@
         <v>111</v>
       </c>
       <c r="D11" s="158" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="190"/>
@@ -9535,7 +9512,7 @@
     <row r="13" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -11661,7 +11638,7 @@
     </row>
     <row r="76" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12457,12 +12434,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="C16:G16"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -12470,6 +12441,12 @@
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12494,14 +12471,14 @@
       </c>
       <c r="C2" s="221"/>
       <c r="D2" s="165" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12512,7 +12489,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12530,7 +12507,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="158" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12550,7 +12527,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="158" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="24.6" thickTop="1" x14ac:dyDescent="0.25">
@@ -12561,7 +12538,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12579,12 +12556,12 @@
         <v>111</v>
       </c>
       <c r="D11" s="158" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="190"/>
@@ -12592,7 +12569,7 @@
     <row r="13" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -14718,7 +14695,7 @@
     </row>
     <row r="76" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -15514,6 +15491,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="A58:A72"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="A18:A32"/>
@@ -15522,11 +15504,6 @@
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15546,7 +15523,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="189" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -15556,47 +15533,47 @@
       </c>
       <c r="C3" s="221"/>
       <c r="D3" s="165" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E3" s="165" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="178" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="237" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="239">
+      <c r="D5" s="235">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E5" s="232">
+      <c r="E5" s="244">
         <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="179" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="233"/>
+        <v>141</v>
+      </c>
+      <c r="C6" s="234"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="245"/>
     </row>
     <row r="7" spans="2:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="179" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="166" t="s">
         <v>110</v>
@@ -15614,35 +15591,35 @@
         <v>111</v>
       </c>
       <c r="D8" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="237" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="238"/>
+      <c r="D9" s="235" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="244" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="239" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="182" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="241" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="239" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="232" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="243" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="234"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="246"/>
     </row>
     <row r="11" spans="2:5" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="196" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -15650,21 +15627,21 @@
     </row>
     <row r="12" spans="2:5" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="183" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="166" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="181" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E12" s="181" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="179" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="166" t="s">
         <v>110</v>
@@ -15678,7 +15655,7 @@
     </row>
     <row r="14" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="184" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="185" t="s">
         <v>108</v>
@@ -15692,21 +15669,21 @@
     </row>
     <row r="15" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="183" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="166" t="s">
         <v>111</v>
       </c>
       <c r="D15" s="181" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E15" s="181" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="179" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C16" s="166" t="s">
         <v>110</v>
@@ -15720,7 +15697,7 @@
     </row>
     <row r="17" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="184" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="185" t="s">
         <v>108</v>
@@ -15734,29 +15711,29 @@
     </row>
     <row r="18" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="183" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="242" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="243" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="247" t="s">
         <v>160</v>
-      </c>
-      <c r="C18" s="246" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="247" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="235" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="179" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="233"/>
+        <v>141</v>
+      </c>
+      <c r="C19" s="234"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="245"/>
     </row>
     <row r="20" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="179" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="166" t="s">
         <v>110</v>
@@ -15770,7 +15747,7 @@
     </row>
     <row r="21" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="184" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="185" t="s">
         <v>108</v>
@@ -15784,21 +15761,21 @@
     </row>
     <row r="22" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="183" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" s="166" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="181" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E22" s="181" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="179" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C23" s="166" t="s">
         <v>110</v>
@@ -15812,7 +15789,7 @@
     </row>
     <row r="24" spans="1:35" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="186" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="167" t="s">
         <v>108</v>
@@ -15826,7 +15803,7 @@
     </row>
     <row r="25" spans="1:35" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -15835,18 +15812,18 @@
     <row r="26" spans="1:35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:35" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="177" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S29" s="177" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -15999,7 +15976,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="226" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B33" s="110" t="s">
         <v>64</v>
@@ -16050,7 +16027,7 @@
         <v>5.2389040589332497E-2</v>
       </c>
       <c r="S33" s="226" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T33" s="110" t="s">
         <v>64</v>
@@ -17906,8 +17883,8 @@
       </c>
     </row>
     <row r="53" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="236" t="s">
-        <v>142</v>
+      <c r="A53" s="232" t="s">
+        <v>139</v>
       </c>
       <c r="B53" s="110" t="s">
         <v>64</v>
@@ -17957,8 +17934,8 @@
       <c r="Q53" s="102">
         <v>7.4365682899951893E-2</v>
       </c>
-      <c r="S53" s="236" t="s">
-        <v>142</v>
+      <c r="S53" s="232" t="s">
+        <v>139</v>
       </c>
       <c r="T53" s="110" t="s">
         <v>64</v>
@@ -19814,8 +19791,8 @@
       </c>
     </row>
     <row r="73" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="236" t="s">
-        <v>172</v>
+      <c r="A73" s="232" t="s">
+        <v>169</v>
       </c>
       <c r="B73" s="110" t="s">
         <v>64</v>
@@ -19865,8 +19842,8 @@
       <c r="Q73" s="102">
         <v>9.3253791332244804E-2</v>
       </c>
-      <c r="S73" s="236" t="s">
-        <v>172</v>
+      <c r="S73" s="232" t="s">
+        <v>169</v>
       </c>
       <c r="T73" s="110" t="s">
         <v>64</v>
@@ -21722,8 +21699,8 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="236" t="s">
-        <v>173</v>
+      <c r="A93" s="232" t="s">
+        <v>170</v>
       </c>
       <c r="B93" s="110" t="s">
         <v>64</v>
@@ -21773,8 +21750,8 @@
       <c r="Q93" s="102">
         <v>6.93322718143463E-2</v>
       </c>
-      <c r="S93" s="236" t="s">
-        <v>173</v>
+      <c r="S93" s="232" t="s">
+        <v>170</v>
       </c>
       <c r="T93" s="110" t="s">
         <v>64</v>
@@ -23630,8 +23607,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="236" t="s">
-        <v>186</v>
+      <c r="A113" s="232" t="s">
+        <v>183</v>
       </c>
       <c r="B113" s="110" t="s">
         <v>64</v>
@@ -23681,8 +23658,8 @@
       <c r="Q113" s="102">
         <v>5.5557072162628098E-2</v>
       </c>
-      <c r="S113" s="236" t="s">
-        <v>186</v>
+      <c r="S113" s="232" t="s">
+        <v>183</v>
       </c>
       <c r="T113" s="110" t="s">
         <v>64</v>
@@ -25391,24 +25368,24 @@
     </row>
     <row r="131" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S131" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:35" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="188" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D133" s="197" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E133" s="198" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F133" s="198" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G133" s="199"/>
       <c r="H133" s="199"/>
@@ -25425,16 +25402,16 @@
       <c r="S133" s="188"/>
       <c r="T133" s="188"/>
       <c r="U133" s="188" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V133" s="197" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W133" s="198" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X133" s="198" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
@@ -27223,18 +27200,34 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A113:A127"/>
-    <mergeCell ref="S73:S87"/>
-    <mergeCell ref="S93:S107"/>
-    <mergeCell ref="S113:S127"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AD91"/>
-    <mergeCell ref="AE91:AI91"/>
-    <mergeCell ref="U111:Y111"/>
-    <mergeCell ref="Z111:AD111"/>
-    <mergeCell ref="AE111:AI111"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:L111"/>
+    <mergeCell ref="M111:Q111"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:Q71"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="M91:Q91"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="S53:S67"/>
     <mergeCell ref="U71:Y71"/>
     <mergeCell ref="Z71:AD71"/>
@@ -27246,34 +27239,18 @@
     <mergeCell ref="AE51:AI51"/>
     <mergeCell ref="U31:Y31"/>
     <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H111:L111"/>
-    <mergeCell ref="M111:Q111"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:Q71"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="M91:Q91"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AD91"/>
+    <mergeCell ref="AE91:AI91"/>
+    <mergeCell ref="U111:Y111"/>
+    <mergeCell ref="Z111:AD111"/>
+    <mergeCell ref="AE111:AI111"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A113:A127"/>
+    <mergeCell ref="S73:S87"/>
+    <mergeCell ref="S93:S107"/>
+    <mergeCell ref="S113:S127"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27299,32 +27276,32 @@
       </c>
       <c r="C3" s="221"/>
       <c r="D3" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="200" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="200" t="s">
+      <c r="G3" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="4" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="201" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27371,16 +27348,16 @@
         <v>111</v>
       </c>
       <c r="D7" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="203" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="158" t="s">
         <v>193</v>
-      </c>
-      <c r="E7" s="203" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="158" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="158" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:35" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27409,45 +27386,45 @@
         <v>111</v>
       </c>
       <c r="D9" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="158" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="203" t="s">
+    </row>
+    <row r="10" spans="2:35" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="253" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="254"/>
+      <c r="D10" s="248" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="250" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="248" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="255" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="158" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="249" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="250"/>
-      <c r="D10" s="253" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="255" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="253" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="251" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="243" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="252"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="256"/>
     </row>
     <row r="12" spans="2:35" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:35" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -27455,7 +27432,7 @@
     </row>
     <row r="14" spans="2:35" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T14" s="21" t="s">
         <v>16</v>
@@ -27463,10 +27440,10 @@
     </row>
     <row r="15" spans="2:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T15" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
@@ -28872,7 +28849,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="110" t="s">
         <v>61</v>
       </c>
@@ -28888,7 +28865,7 @@
       <c r="F34" s="62">
         <v>1.52723217010498</v>
       </c>
-      <c r="S34" s="213"/>
+      <c r="S34" s="208"/>
       <c r="T34" s="110" t="s">
         <v>61</v>
       </c>
@@ -28906,7 +28883,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="213"/>
+      <c r="A35" s="208"/>
       <c r="B35" s="110" t="s">
         <v>61</v>
       </c>
@@ -28922,7 +28899,7 @@
       <c r="F35" s="62">
         <v>1.4147983789443901</v>
       </c>
-      <c r="S35" s="213"/>
+      <c r="S35" s="208"/>
       <c r="T35" s="110" t="s">
         <v>61</v>
       </c>
@@ -28940,7 +28917,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
+      <c r="A36" s="208"/>
       <c r="B36" s="124" t="s">
         <v>62</v>
       </c>
@@ -28956,7 +28933,7 @@
       <c r="F36" s="62">
         <v>1.51660120487213</v>
       </c>
-      <c r="S36" s="213"/>
+      <c r="S36" s="208"/>
       <c r="T36" s="124" t="s">
         <v>62</v>
       </c>
@@ -28974,7 +28951,7 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="110" t="s">
         <v>62</v>
       </c>
@@ -28990,7 +28967,7 @@
       <c r="F37" s="62">
         <v>1.2288577556610101</v>
       </c>
-      <c r="S37" s="213"/>
+      <c r="S37" s="208"/>
       <c r="T37" s="110" t="s">
         <v>62</v>
       </c>
@@ -29008,7 +28985,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
+      <c r="A38" s="208"/>
       <c r="B38" s="112" t="s">
         <v>62</v>
       </c>
@@ -29024,7 +29001,7 @@
       <c r="F38" s="62">
         <v>1.33687400817871</v>
       </c>
-      <c r="S38" s="213"/>
+      <c r="S38" s="208"/>
       <c r="T38" s="112" t="s">
         <v>62</v>
       </c>
@@ -29042,7 +29019,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="213"/>
+      <c r="A39" s="208"/>
       <c r="B39" s="110" t="s">
         <v>63</v>
       </c>
@@ -29058,7 +29035,7 @@
       <c r="F39" s="62">
         <v>1.20509374141693</v>
       </c>
-      <c r="S39" s="213"/>
+      <c r="S39" s="208"/>
       <c r="T39" s="110" t="s">
         <v>63</v>
       </c>
@@ -29076,7 +29053,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="213"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="110" t="s">
         <v>63</v>
       </c>
@@ -29092,7 +29069,7 @@
       <c r="F40" s="62">
         <v>1.1750640869140601</v>
       </c>
-      <c r="S40" s="213"/>
+      <c r="S40" s="208"/>
       <c r="T40" s="110" t="s">
         <v>63</v>
       </c>
@@ -29110,7 +29087,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="112" t="s">
         <v>63</v>
       </c>
@@ -29126,7 +29103,7 @@
       <c r="F41" s="64">
         <v>1.53075730800628</v>
       </c>
-      <c r="S41" s="214"/>
+      <c r="S41" s="209"/>
       <c r="T41" s="112" t="s">
         <v>63</v>
       </c>
@@ -29231,18 +29208,18 @@
     </row>
     <row r="46" spans="1:35" ht="21" x14ac:dyDescent="0.4">
       <c r="B46" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T47" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
@@ -30644,7 +30621,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="213"/>
+      <c r="A66" s="208"/>
       <c r="B66" s="110" t="s">
         <v>61</v>
       </c>
@@ -30658,7 +30635,7 @@
       <c r="F66" s="62">
         <v>1.6620635986328101</v>
       </c>
-      <c r="S66" s="213"/>
+      <c r="S66" s="208"/>
       <c r="T66" s="110" t="s">
         <v>61</v>
       </c>
@@ -30674,7 +30651,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="213"/>
+      <c r="A67" s="208"/>
       <c r="B67" s="110" t="s">
         <v>61</v>
       </c>
@@ -30688,7 +30665,7 @@
       <c r="F67" s="62">
         <v>1.5668187141418399</v>
       </c>
-      <c r="S67" s="213"/>
+      <c r="S67" s="208"/>
       <c r="T67" s="110" t="s">
         <v>61</v>
       </c>
@@ -30704,7 +30681,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="213"/>
+      <c r="A68" s="208"/>
       <c r="B68" s="124" t="s">
         <v>62</v>
       </c>
@@ -30718,7 +30695,7 @@
       <c r="F68" s="62">
         <v>1.54517102241516</v>
       </c>
-      <c r="S68" s="213"/>
+      <c r="S68" s="208"/>
       <c r="T68" s="124" t="s">
         <v>62</v>
       </c>
@@ -30734,7 +30711,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="213"/>
+      <c r="A69" s="208"/>
       <c r="B69" s="110" t="s">
         <v>62</v>
       </c>
@@ -30748,7 +30725,7 @@
       <c r="F69" s="62">
         <v>1.43134188652038</v>
       </c>
-      <c r="S69" s="213"/>
+      <c r="S69" s="208"/>
       <c r="T69" s="110" t="s">
         <v>62</v>
       </c>
@@ -30764,7 +30741,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="213"/>
+      <c r="A70" s="208"/>
       <c r="B70" s="112" t="s">
         <v>62</v>
       </c>
@@ -30778,7 +30755,7 @@
       <c r="F70" s="62">
         <v>1.2979662418365401</v>
       </c>
-      <c r="S70" s="213"/>
+      <c r="S70" s="208"/>
       <c r="T70" s="112" t="s">
         <v>62</v>
       </c>
@@ -30794,7 +30771,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="213"/>
+      <c r="A71" s="208"/>
       <c r="B71" s="110" t="s">
         <v>63</v>
       </c>
@@ -30808,7 +30785,7 @@
       <c r="F71" s="62">
         <v>1.3752093315124501</v>
       </c>
-      <c r="S71" s="213"/>
+      <c r="S71" s="208"/>
       <c r="T71" s="110" t="s">
         <v>63</v>
       </c>
@@ -30824,7 +30801,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="213"/>
+      <c r="A72" s="208"/>
       <c r="B72" s="110" t="s">
         <v>63</v>
       </c>
@@ -30838,7 +30815,7 @@
       <c r="F72" s="62">
         <v>1.46081006526947</v>
       </c>
-      <c r="S72" s="213"/>
+      <c r="S72" s="208"/>
       <c r="T72" s="110" t="s">
         <v>63</v>
       </c>
@@ -30854,7 +30831,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="214"/>
+      <c r="A73" s="209"/>
       <c r="B73" s="112" t="s">
         <v>63</v>
       </c>
@@ -30868,7 +30845,7 @@
       <c r="F73" s="64">
         <v>1.3310630321502599</v>
       </c>
-      <c r="S73" s="214"/>
+      <c r="S73" s="209"/>
       <c r="T73" s="112" t="s">
         <v>63</v>
       </c>
@@ -30965,29 +30942,29 @@
     </row>
     <row r="77" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B77" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T77" s="177" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C78" s="248" t="s">
+      <c r="C78" s="252" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="252"/>
+      <c r="E78" s="252" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="252"/>
+      <c r="U78" s="252" t="s">
+        <v>16</v>
+      </c>
+      <c r="V78" s="252"/>
+      <c r="W78" s="252" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="248"/>
-      <c r="E78" s="248" t="s">
-        <v>187</v>
-      </c>
-      <c r="F78" s="248"/>
-      <c r="U78" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="V78" s="248"/>
-      <c r="W78" s="248" t="s">
-        <v>188</v>
-      </c>
-      <c r="X78" s="248"/>
+      <c r="X78" s="252"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C79" s="12" t="s">
@@ -31673,11 +31650,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="S50:S58"/>
+    <mergeCell ref="S65:S73"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="AE16:AI16"/>
     <mergeCell ref="S18:S26"/>
     <mergeCell ref="S33:S41"/>
@@ -31692,20 +31678,11 @@
     <mergeCell ref="U48:Y48"/>
     <mergeCell ref="Z48:AD48"/>
     <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="U78:V78"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="S50:S58"/>
-    <mergeCell ref="S65:S73"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31739,20 +31716,20 @@
     <row r="2" spans="2:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
-      <c r="D2" s="261" t="s">
+      <c r="D2" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261" t="s">
+      <c r="E2" s="260"/>
+      <c r="F2" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="261"/>
+      <c r="G2" s="260"/>
     </row>
     <row r="3" spans="2:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="261"/>
+      <c r="C3" s="260"/>
       <c r="D3" s="161" t="s">
         <v>13</v>
       </c>
@@ -31767,10 +31744,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="262"/>
+      <c r="C4" s="261"/>
       <c r="D4" s="191" t="s">
         <v>68</v>
       </c>
@@ -31785,10 +31762,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="263"/>
+      <c r="C5" s="262"/>
       <c r="D5" s="192" t="s">
         <v>71</v>
       </c>
@@ -31803,10 +31780,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="262" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="263"/>
+      <c r="C6" s="262"/>
       <c r="D6" s="192" t="s">
         <v>75</v>
       </c>
@@ -31821,10 +31798,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="259"/>
+      <c r="C7" s="258"/>
       <c r="D7" s="192" t="s">
         <v>79</v>
       </c>
@@ -31839,10 +31816,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="258" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="259"/>
+      <c r="C8" s="258"/>
       <c r="D8" s="192" t="s">
         <v>83</v>
       </c>
@@ -31857,10 +31834,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="259"/>
+      <c r="C9" s="258"/>
       <c r="D9" s="193" t="s">
         <v>88</v>
       </c>
@@ -31875,10 +31852,10 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="259"/>
+      <c r="C10" s="258"/>
       <c r="D10" s="192" t="s">
         <v>92</v>
       </c>
@@ -31893,10 +31870,10 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="259" t="s">
+      <c r="B11" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="259"/>
+      <c r="C11" s="258"/>
       <c r="D11" s="192" t="s">
         <v>96</v>
       </c>
@@ -31911,10 +31888,10 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="260"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="194" t="s">
         <v>100</v>
       </c>
@@ -31930,7 +31907,7 @@
     </row>
     <row r="13" spans="2:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C13" s="164"/>
       <c r="D13" s="162"/>
@@ -31948,7 +31925,7 @@
     </row>
     <row r="15" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="177" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -31958,8 +31935,8 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="P16" s="258"/>
-      <c r="Q16" s="258"/>
+      <c r="P16" s="257"/>
+      <c r="Q16" s="257"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -33912,7 +33889,7 @@
       <c r="S58" s="14"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="263" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="94">
@@ -37258,7 +37235,7 @@
       </c>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="257" t="s">
+      <c r="B132" s="263" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="94">
@@ -40619,7 +40596,7 @@
       <c r="S204" s="14"/>
     </row>
     <row r="205" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B205" s="257" t="s">
+      <c r="B205" s="263" t="s">
         <v>54</v>
       </c>
       <c r="C205" s="116">
@@ -43985,7 +43962,7 @@
       <c r="S277" s="14"/>
     </row>
     <row r="278" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B278" s="257" t="s">
+      <c r="B278" s="263" t="s">
         <v>54</v>
       </c>
       <c r="C278" s="116">
@@ -45384,137 +45361,7 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="M81:Q81"/>
-    <mergeCell ref="H98:L98"/>
-    <mergeCell ref="M98:Q98"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="M90:Q90"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="H195:L195"/>
-    <mergeCell ref="M195:Q195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="H163:L163"/>
-    <mergeCell ref="M163:Q163"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="H187:L187"/>
-    <mergeCell ref="M187:Q187"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="H138:L138"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C260:G260"/>
-    <mergeCell ref="H260:L260"/>
-    <mergeCell ref="H244:L244"/>
-    <mergeCell ref="M244:Q244"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="H227:L227"/>
-    <mergeCell ref="M227:Q227"/>
-    <mergeCell ref="M260:Q260"/>
-    <mergeCell ref="B238:B240"/>
-    <mergeCell ref="C244:G244"/>
-    <mergeCell ref="H252:L252"/>
-    <mergeCell ref="M252:Q252"/>
-    <mergeCell ref="C236:G236"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C146:G146"/>
-    <mergeCell ref="H146:L146"/>
-    <mergeCell ref="M146:Q146"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="H179:L179"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="H203:L203"/>
-    <mergeCell ref="M203:Q203"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C187:G187"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="M65:Q65"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="M73:Q73"/>
-    <mergeCell ref="M138:Q138"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="H114:L114"/>
-    <mergeCell ref="M114:Q114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="M106:Q106"/>
-    <mergeCell ref="H122:L122"/>
-    <mergeCell ref="M122:Q122"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="H130:L130"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="H219:L219"/>
-    <mergeCell ref="M219:Q219"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="H154:L154"/>
-    <mergeCell ref="M154:Q154"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="H211:L211"/>
-    <mergeCell ref="M211:Q211"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C171:G171"/>
-    <mergeCell ref="H171:L171"/>
-    <mergeCell ref="M171:Q171"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B262:B264"/>
     <mergeCell ref="B213:B215"/>
     <mergeCell ref="B205:B207"/>
     <mergeCell ref="B302:B304"/>
@@ -45538,9 +45385,139 @@
     <mergeCell ref="C268:G268"/>
     <mergeCell ref="H268:L268"/>
     <mergeCell ref="M268:Q268"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:L130"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="H219:L219"/>
+    <mergeCell ref="M219:Q219"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:L154"/>
+    <mergeCell ref="M154:Q154"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="H211:L211"/>
+    <mergeCell ref="M211:Q211"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="H171:L171"/>
+    <mergeCell ref="M171:Q171"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="H203:L203"/>
+    <mergeCell ref="M203:Q203"/>
+    <mergeCell ref="M179:Q179"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="M65:Q65"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="M73:Q73"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:L114"/>
+    <mergeCell ref="M114:Q114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="H122:L122"/>
+    <mergeCell ref="M122:Q122"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C260:G260"/>
+    <mergeCell ref="H260:L260"/>
+    <mergeCell ref="H244:L244"/>
+    <mergeCell ref="M244:Q244"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="H227:L227"/>
+    <mergeCell ref="M227:Q227"/>
+    <mergeCell ref="M260:Q260"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="C244:G244"/>
+    <mergeCell ref="H252:L252"/>
+    <mergeCell ref="M252:Q252"/>
+    <mergeCell ref="C236:G236"/>
+    <mergeCell ref="M236:Q236"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C187:G187"/>
     <mergeCell ref="H236:L236"/>
-    <mergeCell ref="M236:Q236"/>
-    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="M81:Q81"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="H195:L195"/>
+    <mergeCell ref="M195:Q195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="H163:L163"/>
+    <mergeCell ref="M163:Q163"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="H187:L187"/>
+    <mergeCell ref="M187:Q187"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:L138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:L146"/>
+    <mergeCell ref="M146:Q146"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="H179:L179"/>
+    <mergeCell ref="M98:Q98"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="M90:Q90"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Paper_results/MoleCLIP_full_results.xlsx
+++ b/Paper_results/MoleCLIP_full_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C935A14-D411-4A7D-8D73-6E815D5B4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21315D1E-1203-454B-AE50-17F16814AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2186,11 +2186,11 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2200,6 +2200,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2217,12 +2223,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2257,6 +2257,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2294,16 +2306,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2318,20 +2333,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,9 +2352,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2650,38 +2650,38 @@
       <c r="F1" s="39"/>
     </row>
     <row r="2" spans="2:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="220" t="s">
+      <c r="D2" s="208"/>
+      <c r="E2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="220"/>
+      <c r="F2" s="209"/>
     </row>
     <row r="3" spans="2:17" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="217" t="s">
+      <c r="F3" s="219" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="214"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
@@ -2920,7 +2920,7 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="213" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="86"/>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="208"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="86"/>
       <c r="D20" s="34">
         <v>0.80333854981742303</v>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="209"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="87"/>
       <c r="D21" s="37">
         <v>0.79255781603199404</v>
@@ -3275,7 +3275,7 @@
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="213" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="34">
@@ -3325,7 +3325,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="208"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="34">
         <v>0.72989004629629595</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="209"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="34">
         <v>0.71865354938271597</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="S36" s="14"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="213" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="30">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="208"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="30">
         <v>1.97353947162628</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="209"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="27">
         <v>2.3044509887695299</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="208" t="s">
+      <c r="B46" s="213" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="66">
@@ -4048,7 +4048,7 @@
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="208"/>
+      <c r="B47" s="213"/>
       <c r="C47" s="66">
         <v>1.1055727005004801</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="209"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="66">
         <v>1.0286796092987001</v>
       </c>
@@ -4275,6 +4275,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="M26:Q26"/>
@@ -4285,19 +4298,6 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4308,9 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33D9E33-785C-47D7-9DC1-CE0549D33BCD}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D47"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4329,8 +4327,8 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="59" t="s">
         <v>107</v>
       </c>
@@ -4729,7 +4727,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
+      <c r="A34" s="213"/>
       <c r="B34" s="110" t="s">
         <v>61</v>
       </c>
@@ -4746,7 +4744,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
+      <c r="A35" s="213"/>
       <c r="B35" s="110" t="s">
         <v>61</v>
       </c>
@@ -4763,7 +4761,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="124" t="s">
         <v>62</v>
       </c>
@@ -4780,7 +4778,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="208"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="110" t="s">
         <v>62</v>
       </c>
@@ -4797,7 +4795,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="208"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="112" t="s">
         <v>62</v>
       </c>
@@ -4814,7 +4812,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="110" t="s">
         <v>63</v>
       </c>
@@ -4835,7 +4833,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="213"/>
       <c r="B40" s="110" t="s">
         <v>63</v>
       </c>
@@ -4856,7 +4854,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="112" t="s">
         <v>63</v>
       </c>
@@ -5467,9 +5465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A142E2-66DF-4D27-83CE-EA5EDDEEEEBB}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5487,8 +5483,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="59" t="s">
         <v>123</v>
       </c>
@@ -9376,6 +9372,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="M16:Q16"/>
@@ -9383,12 +9385,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9400,7 +9396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9B92CD-4511-4160-BDB0-ADF0134A75B4}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9418,8 +9414,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="59" t="s">
         <v>177</v>
       </c>
@@ -12434,6 +12430,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -12441,12 +12443,6 @@
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="F56:H56"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12475,8 +12471,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="59" t="s">
         <v>131</v>
       </c>
@@ -15491,11 +15487,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C16:G16"/>
     <mergeCell ref="A58:A72"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="A18:A32"/>
@@ -15504,6 +15495,11 @@
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15540,8 +15536,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
       <c r="D4" s="59" t="s">
         <v>177</v>
       </c>
@@ -15553,13 +15549,13 @@
       <c r="B5" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="237" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="235">
+      <c r="D5" s="239">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="232">
         <v>1E-4</v>
       </c>
     </row>
@@ -15567,9 +15563,9 @@
       <c r="B6" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="245"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="233"/>
     </row>
     <row r="7" spans="2:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="179" t="s">
@@ -15598,24 +15594,24 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="235" t="s">
+      <c r="C9" s="242"/>
+      <c r="D9" s="239" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="244" t="s">
+      <c r="E9" s="232" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="246"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="234"/>
     </row>
     <row r="11" spans="2:5" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="196" t="s">
@@ -15713,13 +15709,13 @@
       <c r="B18" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="242" t="s">
+      <c r="C18" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="243" t="s">
+      <c r="D18" s="247" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="247" t="s">
+      <c r="E18" s="235" t="s">
         <v>160</v>
       </c>
     </row>
@@ -15727,9 +15723,9 @@
       <c r="B19" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="245"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="233"/>
     </row>
     <row r="20" spans="1:35" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="179" t="s">
@@ -17883,7 +17879,7 @@
       </c>
     </row>
     <row r="53" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="232" t="s">
+      <c r="A53" s="236" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="110" t="s">
@@ -17934,7 +17930,7 @@
       <c r="Q53" s="102">
         <v>7.4365682899951893E-2</v>
       </c>
-      <c r="S53" s="232" t="s">
+      <c r="S53" s="236" t="s">
         <v>139</v>
       </c>
       <c r="T53" s="110" t="s">
@@ -19791,7 +19787,7 @@
       </c>
     </row>
     <row r="73" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="232" t="s">
+      <c r="A73" s="236" t="s">
         <v>169</v>
       </c>
       <c r="B73" s="110" t="s">
@@ -19842,7 +19838,7 @@
       <c r="Q73" s="102">
         <v>9.3253791332244804E-2</v>
       </c>
-      <c r="S73" s="232" t="s">
+      <c r="S73" s="236" t="s">
         <v>169</v>
       </c>
       <c r="T73" s="110" t="s">
@@ -21699,7 +21695,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="232" t="s">
+      <c r="A93" s="236" t="s">
         <v>170</v>
       </c>
       <c r="B93" s="110" t="s">
@@ -21750,7 +21746,7 @@
       <c r="Q93" s="102">
         <v>6.93322718143463E-2</v>
       </c>
-      <c r="S93" s="232" t="s">
+      <c r="S93" s="236" t="s">
         <v>170</v>
       </c>
       <c r="T93" s="110" t="s">
@@ -23607,7 +23603,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="232" t="s">
+      <c r="A113" s="236" t="s">
         <v>183</v>
       </c>
       <c r="B113" s="110" t="s">
@@ -23658,7 +23654,7 @@
       <c r="Q113" s="102">
         <v>5.5557072162628098E-2</v>
       </c>
-      <c r="S113" s="232" t="s">
+      <c r="S113" s="236" t="s">
         <v>183</v>
       </c>
       <c r="T113" s="110" t="s">
@@ -27200,34 +27196,18 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H111:L111"/>
-    <mergeCell ref="M111:Q111"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="M71:Q71"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="M91:Q91"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A113:A127"/>
+    <mergeCell ref="S73:S87"/>
+    <mergeCell ref="S93:S107"/>
+    <mergeCell ref="S113:S127"/>
+    <mergeCell ref="U91:Y91"/>
+    <mergeCell ref="Z91:AD91"/>
+    <mergeCell ref="AE91:AI91"/>
+    <mergeCell ref="U111:Y111"/>
+    <mergeCell ref="Z111:AD111"/>
+    <mergeCell ref="AE111:AI111"/>
     <mergeCell ref="S53:S67"/>
     <mergeCell ref="U71:Y71"/>
     <mergeCell ref="Z71:AD71"/>
@@ -27239,18 +27219,34 @@
     <mergeCell ref="AE51:AI51"/>
     <mergeCell ref="U31:Y31"/>
     <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="U91:Y91"/>
-    <mergeCell ref="Z91:AD91"/>
-    <mergeCell ref="AE91:AI91"/>
-    <mergeCell ref="U111:Y111"/>
-    <mergeCell ref="Z111:AD111"/>
-    <mergeCell ref="AE111:AI111"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A113:A127"/>
-    <mergeCell ref="S73:S87"/>
-    <mergeCell ref="S93:S107"/>
-    <mergeCell ref="S113:S127"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:L111"/>
+    <mergeCell ref="M111:Q111"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="M71:Q71"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="M91:Q91"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27289,8 +27285,8 @@
       </c>
     </row>
     <row r="4" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
       <c r="D4" s="41" t="s">
         <v>187</v>
       </c>
@@ -27399,32 +27395,32 @@
       </c>
     </row>
     <row r="10" spans="2:35" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="253" t="s">
+      <c r="B10" s="249" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="254"/>
-      <c r="D10" s="248" t="s">
+      <c r="C10" s="250"/>
+      <c r="D10" s="253" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="250" t="s">
+      <c r="E10" s="255" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="248" t="s">
+      <c r="F10" s="253" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="255" t="s">
+      <c r="G10" s="251" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="243" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="256"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="252"/>
     </row>
     <row r="12" spans="2:35" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:35" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -28849,7 +28845,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
+      <c r="A34" s="213"/>
       <c r="B34" s="110" t="s">
         <v>61</v>
       </c>
@@ -28865,7 +28861,7 @@
       <c r="F34" s="62">
         <v>1.52723217010498</v>
       </c>
-      <c r="S34" s="208"/>
+      <c r="S34" s="213"/>
       <c r="T34" s="110" t="s">
         <v>61</v>
       </c>
@@ -28883,7 +28879,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
+      <c r="A35" s="213"/>
       <c r="B35" s="110" t="s">
         <v>61</v>
       </c>
@@ -28899,7 +28895,7 @@
       <c r="F35" s="62">
         <v>1.4147983789443901</v>
       </c>
-      <c r="S35" s="208"/>
+      <c r="S35" s="213"/>
       <c r="T35" s="110" t="s">
         <v>61</v>
       </c>
@@ -28917,7 +28913,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="124" t="s">
         <v>62</v>
       </c>
@@ -28933,7 +28929,7 @@
       <c r="F36" s="62">
         <v>1.51660120487213</v>
       </c>
-      <c r="S36" s="208"/>
+      <c r="S36" s="213"/>
       <c r="T36" s="124" t="s">
         <v>62</v>
       </c>
@@ -28951,7 +28947,7 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="208"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="110" t="s">
         <v>62</v>
       </c>
@@ -28967,7 +28963,7 @@
       <c r="F37" s="62">
         <v>1.2288577556610101</v>
       </c>
-      <c r="S37" s="208"/>
+      <c r="S37" s="213"/>
       <c r="T37" s="110" t="s">
         <v>62</v>
       </c>
@@ -28985,7 +28981,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="208"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="112" t="s">
         <v>62</v>
       </c>
@@ -29001,7 +28997,7 @@
       <c r="F38" s="62">
         <v>1.33687400817871</v>
       </c>
-      <c r="S38" s="208"/>
+      <c r="S38" s="213"/>
       <c r="T38" s="112" t="s">
         <v>62</v>
       </c>
@@ -29019,7 +29015,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="110" t="s">
         <v>63</v>
       </c>
@@ -29035,7 +29031,7 @@
       <c r="F39" s="62">
         <v>1.20509374141693</v>
       </c>
-      <c r="S39" s="208"/>
+      <c r="S39" s="213"/>
       <c r="T39" s="110" t="s">
         <v>63</v>
       </c>
@@ -29053,7 +29049,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="213"/>
       <c r="B40" s="110" t="s">
         <v>63</v>
       </c>
@@ -29069,7 +29065,7 @@
       <c r="F40" s="62">
         <v>1.1750640869140601</v>
       </c>
-      <c r="S40" s="208"/>
+      <c r="S40" s="213"/>
       <c r="T40" s="110" t="s">
         <v>63</v>
       </c>
@@ -29087,7 +29083,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="112" t="s">
         <v>63</v>
       </c>
@@ -29103,7 +29099,7 @@
       <c r="F41" s="64">
         <v>1.53075730800628</v>
       </c>
-      <c r="S41" s="209"/>
+      <c r="S41" s="214"/>
       <c r="T41" s="112" t="s">
         <v>63</v>
       </c>
@@ -30621,7 +30617,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="208"/>
+      <c r="A66" s="213"/>
       <c r="B66" s="110" t="s">
         <v>61</v>
       </c>
@@ -30635,7 +30631,7 @@
       <c r="F66" s="62">
         <v>1.6620635986328101</v>
       </c>
-      <c r="S66" s="208"/>
+      <c r="S66" s="213"/>
       <c r="T66" s="110" t="s">
         <v>61</v>
       </c>
@@ -30651,7 +30647,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="208"/>
+      <c r="A67" s="213"/>
       <c r="B67" s="110" t="s">
         <v>61</v>
       </c>
@@ -30665,7 +30661,7 @@
       <c r="F67" s="62">
         <v>1.5668187141418399</v>
       </c>
-      <c r="S67" s="208"/>
+      <c r="S67" s="213"/>
       <c r="T67" s="110" t="s">
         <v>61</v>
       </c>
@@ -30681,7 +30677,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="208"/>
+      <c r="A68" s="213"/>
       <c r="B68" s="124" t="s">
         <v>62</v>
       </c>
@@ -30695,7 +30691,7 @@
       <c r="F68" s="62">
         <v>1.54517102241516</v>
       </c>
-      <c r="S68" s="208"/>
+      <c r="S68" s="213"/>
       <c r="T68" s="124" t="s">
         <v>62</v>
       </c>
@@ -30711,7 +30707,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="208"/>
+      <c r="A69" s="213"/>
       <c r="B69" s="110" t="s">
         <v>62</v>
       </c>
@@ -30725,7 +30721,7 @@
       <c r="F69" s="62">
         <v>1.43134188652038</v>
       </c>
-      <c r="S69" s="208"/>
+      <c r="S69" s="213"/>
       <c r="T69" s="110" t="s">
         <v>62</v>
       </c>
@@ -30741,7 +30737,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="208"/>
+      <c r="A70" s="213"/>
       <c r="B70" s="112" t="s">
         <v>62</v>
       </c>
@@ -30755,7 +30751,7 @@
       <c r="F70" s="62">
         <v>1.2979662418365401</v>
       </c>
-      <c r="S70" s="208"/>
+      <c r="S70" s="213"/>
       <c r="T70" s="112" t="s">
         <v>62</v>
       </c>
@@ -30771,7 +30767,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="208"/>
+      <c r="A71" s="213"/>
       <c r="B71" s="110" t="s">
         <v>63</v>
       </c>
@@ -30785,7 +30781,7 @@
       <c r="F71" s="62">
         <v>1.3752093315124501</v>
       </c>
-      <c r="S71" s="208"/>
+      <c r="S71" s="213"/>
       <c r="T71" s="110" t="s">
         <v>63</v>
       </c>
@@ -30801,7 +30797,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="208"/>
+      <c r="A72" s="213"/>
       <c r="B72" s="110" t="s">
         <v>63</v>
       </c>
@@ -30815,7 +30811,7 @@
       <c r="F72" s="62">
         <v>1.46081006526947</v>
       </c>
-      <c r="S72" s="208"/>
+      <c r="S72" s="213"/>
       <c r="T72" s="110" t="s">
         <v>63</v>
       </c>
@@ -30831,7 +30827,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="209"/>
+      <c r="A73" s="214"/>
       <c r="B73" s="112" t="s">
         <v>63</v>
       </c>
@@ -30845,7 +30841,7 @@
       <c r="F73" s="64">
         <v>1.3310630321502599</v>
       </c>
-      <c r="S73" s="209"/>
+      <c r="S73" s="214"/>
       <c r="T73" s="112" t="s">
         <v>63</v>
       </c>
@@ -30949,22 +30945,22 @@
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C78" s="252" t="s">
+      <c r="C78" s="248" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="252"/>
-      <c r="E78" s="252" t="s">
+      <c r="D78" s="248"/>
+      <c r="E78" s="248" t="s">
         <v>184</v>
       </c>
-      <c r="F78" s="252"/>
-      <c r="U78" s="252" t="s">
+      <c r="F78" s="248"/>
+      <c r="U78" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="252"/>
-      <c r="W78" s="252" t="s">
+      <c r="V78" s="248"/>
+      <c r="W78" s="248" t="s">
         <v>185</v>
       </c>
-      <c r="X78" s="252"/>
+      <c r="X78" s="248"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C79" s="12" t="s">
@@ -31650,6 +31646,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="S18:S26"/>
+    <mergeCell ref="S33:S41"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AD48"/>
+    <mergeCell ref="AE48:AI48"/>
     <mergeCell ref="U78:V78"/>
     <mergeCell ref="W78:X78"/>
     <mergeCell ref="A18:A26"/>
@@ -31664,25 +31679,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="S18:S26"/>
-    <mergeCell ref="S33:S41"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AD48"/>
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31716,20 +31712,20 @@
     <row r="2" spans="2:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
-      <c r="D2" s="260" t="s">
+      <c r="D2" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260" t="s">
+      <c r="E2" s="261"/>
+      <c r="F2" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="260"/>
+      <c r="G2" s="261"/>
     </row>
     <row r="3" spans="2:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="260"/>
+      <c r="C3" s="261"/>
       <c r="D3" s="161" t="s">
         <v>13</v>
       </c>
@@ -31744,10 +31740,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="261"/>
+      <c r="C4" s="262"/>
       <c r="D4" s="191" t="s">
         <v>68</v>
       </c>
@@ -31762,10 +31758,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="263" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="262"/>
+      <c r="C5" s="263"/>
       <c r="D5" s="192" t="s">
         <v>71</v>
       </c>
@@ -31780,10 +31776,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="263" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="262"/>
+      <c r="C6" s="263"/>
       <c r="D6" s="192" t="s">
         <v>75</v>
       </c>
@@ -31798,10 +31794,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="258"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="192" t="s">
         <v>79</v>
       </c>
@@ -31816,10 +31812,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="258"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="192" t="s">
         <v>83</v>
       </c>
@@ -31834,10 +31830,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="258" t="s">
+      <c r="B9" s="259" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="258"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="193" t="s">
         <v>88</v>
       </c>
@@ -31852,10 +31848,10 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="258"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="192" t="s">
         <v>92</v>
       </c>
@@ -31870,10 +31866,10 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="258"/>
+      <c r="C11" s="259"/>
       <c r="D11" s="192" t="s">
         <v>96</v>
       </c>
@@ -31888,10 +31884,10 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="259"/>
+      <c r="C12" s="260"/>
       <c r="D12" s="194" t="s">
         <v>100</v>
       </c>
@@ -31935,8 +31931,8 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="257"/>
+      <c r="P16" s="258"/>
+      <c r="Q16" s="258"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
@@ -33889,7 +33885,7 @@
       <c r="S58" s="14"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="94">
@@ -37235,7 +37231,7 @@
       </c>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="263" t="s">
+      <c r="B132" s="257" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="94">
@@ -40596,7 +40592,7 @@
       <c r="S204" s="14"/>
     </row>
     <row r="205" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B205" s="263" t="s">
+      <c r="B205" s="257" t="s">
         <v>54</v>
       </c>
       <c r="C205" s="116">
@@ -43962,7 +43958,7 @@
       <c r="S277" s="14"/>
     </row>
     <row r="278" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B278" s="263" t="s">
+      <c r="B278" s="257" t="s">
         <v>54</v>
       </c>
       <c r="C278" s="116">
@@ -45361,6 +45357,139 @@
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M98:Q98"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="M90:Q90"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="M81:Q81"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="H195:L195"/>
+    <mergeCell ref="M195:Q195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="H163:L163"/>
+    <mergeCell ref="M163:Q163"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="H187:L187"/>
+    <mergeCell ref="M187:Q187"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:L138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:L146"/>
+    <mergeCell ref="M146:Q146"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="H179:L179"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C260:G260"/>
+    <mergeCell ref="H260:L260"/>
+    <mergeCell ref="H244:L244"/>
+    <mergeCell ref="M244:Q244"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="H227:L227"/>
+    <mergeCell ref="M227:Q227"/>
+    <mergeCell ref="M260:Q260"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="C244:G244"/>
+    <mergeCell ref="H252:L252"/>
+    <mergeCell ref="M252:Q252"/>
+    <mergeCell ref="C236:G236"/>
+    <mergeCell ref="M236:Q236"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C187:G187"/>
+    <mergeCell ref="H236:L236"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="M65:Q65"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="M73:Q73"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:L114"/>
+    <mergeCell ref="M114:Q114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="M106:Q106"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="H122:L122"/>
+    <mergeCell ref="M122:Q122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:L130"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="H219:L219"/>
+    <mergeCell ref="M219:Q219"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:L154"/>
+    <mergeCell ref="M154:Q154"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="H211:L211"/>
+    <mergeCell ref="M211:Q211"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="H171:L171"/>
+    <mergeCell ref="M171:Q171"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="H203:L203"/>
+    <mergeCell ref="M203:Q203"/>
+    <mergeCell ref="M179:Q179"/>
     <mergeCell ref="B262:B264"/>
     <mergeCell ref="B213:B215"/>
     <mergeCell ref="B205:B207"/>
@@ -45385,139 +45514,6 @@
     <mergeCell ref="C268:G268"/>
     <mergeCell ref="H268:L268"/>
     <mergeCell ref="M268:Q268"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="H130:L130"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="H219:L219"/>
-    <mergeCell ref="M219:Q219"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="H154:L154"/>
-    <mergeCell ref="M154:Q154"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="H211:L211"/>
-    <mergeCell ref="M211:Q211"/>
-    <mergeCell ref="C171:G171"/>
-    <mergeCell ref="H171:L171"/>
-    <mergeCell ref="M171:Q171"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="H203:L203"/>
-    <mergeCell ref="M203:Q203"/>
-    <mergeCell ref="M179:Q179"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="M65:Q65"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="M73:Q73"/>
-    <mergeCell ref="M138:Q138"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="H114:L114"/>
-    <mergeCell ref="M114:Q114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="M106:Q106"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:L98"/>
-    <mergeCell ref="H122:L122"/>
-    <mergeCell ref="M122:Q122"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C260:G260"/>
-    <mergeCell ref="H260:L260"/>
-    <mergeCell ref="H244:L244"/>
-    <mergeCell ref="M244:Q244"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="H227:L227"/>
-    <mergeCell ref="M227:Q227"/>
-    <mergeCell ref="M260:Q260"/>
-    <mergeCell ref="B238:B240"/>
-    <mergeCell ref="C244:G244"/>
-    <mergeCell ref="H252:L252"/>
-    <mergeCell ref="M252:Q252"/>
-    <mergeCell ref="C236:G236"/>
-    <mergeCell ref="M236:Q236"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C187:G187"/>
-    <mergeCell ref="H236:L236"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="M81:Q81"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="H195:L195"/>
-    <mergeCell ref="M195:Q195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="H163:L163"/>
-    <mergeCell ref="M163:Q163"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="H187:L187"/>
-    <mergeCell ref="M187:Q187"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="H138:L138"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C146:G146"/>
-    <mergeCell ref="H146:L146"/>
-    <mergeCell ref="M146:Q146"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="H179:L179"/>
-    <mergeCell ref="M98:Q98"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:L90"/>
-    <mergeCell ref="M90:Q90"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
